--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A136E0-7D80-4F47-B352-F63CD2C80C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CDD1C6-3DF3-468E-8E49-B95930D6D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="4065" windowWidth="30825" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="403">
   <si>
     <t>id</t>
   </si>
@@ -1341,7 +1341,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1711,14 +1801,13 @@
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L12"/>
+      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -1874,6 +1963,9 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1916,6 +2008,9 @@
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1958,6 +2053,9 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,6 +2101,9 @@
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
@@ -2051,6 +2152,9 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2096,6 +2200,9 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2141,6 +2248,9 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2186,6 +2296,9 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -2231,6 +2344,9 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2273,6 +2389,9 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2315,6 +2434,9 @@
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2357,6 +2479,9 @@
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2399,6 +2524,9 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
@@ -2441,6 +2569,9 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
@@ -2483,6 +2614,9 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
@@ -2525,6 +2659,9 @@
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
@@ -2567,6 +2704,9 @@
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2609,6 +2749,9 @@
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -2651,6 +2794,9 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
@@ -2696,6 +2842,9 @@
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2741,6 +2890,9 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2786,6 +2938,9 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
@@ -2831,6 +2986,9 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
@@ -2876,6 +3034,9 @@
       <c r="A28" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
@@ -2922,6 +3083,9 @@
       <c r="A29" s="1" t="s">
         <v>291</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
@@ -2968,6 +3132,9 @@
       <c r="A30" s="1" t="s">
         <v>292</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
@@ -3014,6 +3181,9 @@
       <c r="A31" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
@@ -3060,6 +3230,9 @@
       <c r="A32" s="1" t="s">
         <v>294</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
@@ -3106,6 +3279,9 @@
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
@@ -3148,6 +3324,9 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
@@ -3190,6 +3369,9 @@
       <c r="A35" s="1" t="s">
         <v>301</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
@@ -3232,6 +3414,9 @@
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
@@ -3274,6 +3459,9 @@
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3316,6 +3504,9 @@
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B38" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
@@ -3358,6 +3549,9 @@
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B39" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
@@ -3400,6 +3594,9 @@
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
@@ -3442,6 +3639,9 @@
       <c r="A41" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
       </c>
@@ -3484,6 +3684,9 @@
       <c r="A42" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
@@ -3526,6 +3729,9 @@
       <c r="A43" s="1" t="s">
         <v>257</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
       </c>
@@ -3568,6 +3774,9 @@
       <c r="A44" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
       </c>
@@ -3610,6 +3819,9 @@
       <c r="A45" s="1" t="s">
         <v>259</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
@@ -3652,6 +3864,9 @@
       <c r="A46" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
@@ -3694,6 +3909,9 @@
       <c r="A47" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
@@ -3736,6 +3954,9 @@
       <c r="A48" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
@@ -3778,6 +3999,9 @@
       <c r="A49" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
@@ -3820,6 +4044,9 @@
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3862,6 +4089,9 @@
       <c r="A51" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
@@ -3904,6 +4134,9 @@
       <c r="A52" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3946,6 +4179,9 @@
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
@@ -3988,6 +4224,9 @@
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
@@ -4030,6 +4269,9 @@
       <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
@@ -4072,6 +4314,9 @@
       <c r="A56" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
@@ -4114,6 +4359,9 @@
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
@@ -4156,6 +4404,9 @@
       <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
@@ -4198,6 +4449,9 @@
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
@@ -4240,6 +4494,9 @@
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
@@ -4282,6 +4539,9 @@
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4324,6 +4584,9 @@
       <c r="A62" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
@@ -4366,6 +4629,9 @@
       <c r="A63" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4408,6 +4674,9 @@
       <c r="A64" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
@@ -4450,6 +4719,9 @@
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
@@ -4492,6 +4764,9 @@
       <c r="A66" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
@@ -4534,6 +4809,9 @@
       <c r="A67" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
@@ -4576,6 +4854,9 @@
       <c r="A68" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
@@ -4615,6 +4896,9 @@
       <c r="A69" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
@@ -4654,6 +4938,9 @@
       <c r="A70" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
@@ -4693,6 +4980,9 @@
       <c r="A71" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
@@ -4732,6 +5022,9 @@
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>39</v>
       </c>
@@ -4771,6 +5064,9 @@
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>39</v>
       </c>
@@ -4813,6 +5109,9 @@
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>39</v>
       </c>
@@ -4855,6 +5154,9 @@
       <c r="A75" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>39</v>
       </c>
@@ -4897,6 +5199,9 @@
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>39</v>
       </c>
@@ -4939,6 +5244,9 @@
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>39</v>
       </c>
@@ -4981,6 +5289,9 @@
       <c r="A78" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>39</v>
       </c>
@@ -5023,6 +5334,9 @@
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>39</v>
       </c>
@@ -5065,6 +5379,9 @@
       <c r="A80" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>39</v>
       </c>
@@ -5107,6 +5424,9 @@
       <c r="A81" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>39</v>
       </c>
@@ -5149,6 +5469,9 @@
       <c r="A82" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>39</v>
       </c>
@@ -5191,6 +5514,9 @@
       <c r="A83" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>39</v>
       </c>
@@ -5233,6 +5559,9 @@
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>39</v>
       </c>
@@ -5275,6 +5604,9 @@
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="B85" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>39</v>
       </c>
@@ -5317,6 +5649,9 @@
       <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>39</v>
       </c>
@@ -5359,6 +5694,9 @@
       <c r="A87" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>39</v>
       </c>
@@ -5401,6 +5739,9 @@
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>39</v>
       </c>
@@ -5443,6 +5784,9 @@
       <c r="A89" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>39</v>
       </c>
@@ -5485,6 +5829,9 @@
       <c r="A90" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>39</v>
       </c>
@@ -5527,6 +5874,9 @@
       <c r="A91" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>39</v>
       </c>
@@ -5569,6 +5919,9 @@
       <c r="A92" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>39</v>
       </c>
@@ -5611,6 +5964,9 @@
       <c r="A93" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>39</v>
       </c>
@@ -5653,6 +6009,9 @@
       <c r="A94" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>39</v>
       </c>
@@ -5695,6 +6054,9 @@
       <c r="A95" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>39</v>
       </c>
@@ -5737,6 +6099,9 @@
       <c r="A96" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>39</v>
       </c>
@@ -5779,6 +6144,9 @@
       <c r="A97" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>39</v>
       </c>
@@ -5821,6 +6189,9 @@
       <c r="A98" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>39</v>
       </c>
@@ -5863,6 +6234,9 @@
       <c r="A99" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>39</v>
       </c>
@@ -5905,6 +6279,9 @@
       <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>39</v>
       </c>
@@ -5947,6 +6324,9 @@
       <c r="A101" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>39</v>
       </c>
@@ -5989,6 +6369,9 @@
       <c r="A102" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>39</v>
       </c>
@@ -6031,6 +6414,9 @@
       <c r="A103" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>39</v>
       </c>
@@ -6073,6 +6459,9 @@
       <c r="A104" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>39</v>
       </c>
@@ -6115,6 +6504,9 @@
       <c r="A105" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
@@ -6157,6 +6549,9 @@
       <c r="A106" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>39</v>
       </c>
@@ -6199,6 +6594,9 @@
       <c r="A107" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>39</v>
       </c>
@@ -6241,6 +6639,9 @@
       <c r="A108" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>39</v>
       </c>
@@ -6283,6 +6684,9 @@
       <c r="A109" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>39</v>
       </c>
@@ -6325,6 +6729,9 @@
       <c r="A110" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>39</v>
       </c>
@@ -6367,6 +6774,9 @@
       <c r="A111" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>39</v>
       </c>
@@ -6409,6 +6819,9 @@
       <c r="A112" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C112" s="1" t="s">
         <v>39</v>
       </c>
@@ -6451,6 +6864,9 @@
       <c r="A113" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>39</v>
       </c>
@@ -6493,6 +6909,9 @@
       <c r="A114" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="C114" s="1" t="s">
         <v>39</v>
       </c>
@@ -6535,6 +6954,9 @@
       <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B115" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="C115" s="1" t="s">
         <v>39</v>
       </c>
@@ -6577,6 +6999,9 @@
       <c r="A116" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B116" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="C116" s="1" t="s">
         <v>39</v>
       </c>
@@ -6619,6 +7044,9 @@
       <c r="A117" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="C117" s="1" t="s">
         <v>39</v>
       </c>
@@ -6661,6 +7089,9 @@
       <c r="A118" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="C118" s="1" t="s">
         <v>39</v>
       </c>
@@ -6703,6 +7134,9 @@
       <c r="A119" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="C119" s="1" t="s">
         <v>39</v>
       </c>
@@ -6745,6 +7179,9 @@
       <c r="A120" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>39</v>
       </c>
@@ -6787,6 +7224,9 @@
       <c r="A121" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C121" s="1" t="s">
         <v>39</v>
       </c>
@@ -6829,6 +7269,9 @@
       <c r="A122" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>39</v>
       </c>
@@ -6871,6 +7314,9 @@
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="C123" s="1" t="s">
         <v>39</v>
       </c>
@@ -6913,6 +7359,9 @@
       <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="C124" s="1" t="s">
         <v>39</v>
       </c>
@@ -6955,6 +7404,9 @@
       <c r="A125" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>39</v>
       </c>
@@ -6997,6 +7449,9 @@
       <c r="A126" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>39</v>
       </c>
@@ -7042,6 +7497,9 @@
       <c r="A127" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>39</v>
       </c>
@@ -7087,6 +7545,9 @@
       <c r="A128" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>39</v>
       </c>
@@ -7132,6 +7593,9 @@
       <c r="A129" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>39</v>
       </c>
@@ -7177,6 +7641,9 @@
       <c r="A130" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>39</v>
       </c>
@@ -7222,6 +7689,9 @@
       <c r="A131" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>39</v>
       </c>
@@ -7267,6 +7737,9 @@
       <c r="A132" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>39</v>
       </c>
@@ -7312,6 +7785,9 @@
       <c r="A133" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>39</v>
       </c>
@@ -7357,6 +7833,9 @@
       <c r="A134" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>39</v>
       </c>
@@ -7399,6 +7878,9 @@
       <c r="A135" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>39</v>
       </c>
@@ -7441,6 +7923,9 @@
       <c r="A136" s="1" t="s">
         <v>279</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>39</v>
       </c>
@@ -7483,6 +7968,9 @@
       <c r="A137" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>39</v>
       </c>
@@ -7522,6 +8010,9 @@
       <c r="A138" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>39</v>
       </c>
@@ -7564,6 +8055,9 @@
       <c r="A139" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>39</v>
       </c>
@@ -7606,6 +8100,9 @@
       <c r="A140" s="1" t="s">
         <v>303</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>39</v>
       </c>
@@ -7648,6 +8145,9 @@
       <c r="A141" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>39</v>
       </c>
@@ -7690,6 +8190,9 @@
       <c r="A142" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>39</v>
       </c>
@@ -7732,6 +8235,9 @@
       <c r="A143" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>39</v>
       </c>
@@ -7774,6 +8280,9 @@
       <c r="A144" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>39</v>
       </c>
@@ -7813,6 +8322,9 @@
       <c r="A145" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>39</v>
       </c>
@@ -7852,6 +8364,9 @@
       <c r="A146" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>39</v>
       </c>
@@ -7891,6 +8406,9 @@
       <c r="A147" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>39</v>
       </c>
@@ -7930,6 +8448,9 @@
       <c r="A148" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>39</v>
       </c>
@@ -7969,6 +8490,9 @@
       <c r="A149" s="1" t="s">
         <v>317</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>39</v>
       </c>
@@ -8008,6 +8532,9 @@
       <c r="A150" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>39</v>
       </c>
@@ -8047,6 +8574,9 @@
       <c r="A151" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>39</v>
       </c>
@@ -8086,6 +8616,9 @@
       <c r="A152" s="1" t="s">
         <v>323</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>39</v>
       </c>
@@ -8125,6 +8658,9 @@
       <c r="A153" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>39</v>
       </c>
@@ -8164,6 +8700,9 @@
       <c r="A154" s="1" t="s">
         <v>327</v>
       </c>
+      <c r="B154" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>39</v>
       </c>
@@ -8203,6 +8742,9 @@
       <c r="A155" s="1" t="s">
         <v>329</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>39</v>
       </c>
@@ -8242,6 +8784,9 @@
       <c r="A156" s="1" t="s">
         <v>331</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>39</v>
       </c>
@@ -8281,6 +8826,9 @@
       <c r="A157" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>39</v>
       </c>
@@ -8320,6 +8868,9 @@
       <c r="A158" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>39</v>
       </c>
@@ -8359,6 +8910,9 @@
       <c r="A159" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>39</v>
       </c>
@@ -8398,6 +8952,9 @@
       <c r="A160" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>39</v>
       </c>
@@ -8437,6 +8994,9 @@
       <c r="A161" s="1" t="s">
         <v>341</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>39</v>
       </c>
@@ -8476,6 +9036,9 @@
       <c r="A162" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>39</v>
       </c>
@@ -8515,6 +9078,9 @@
       <c r="A163" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>39</v>
       </c>
@@ -8554,6 +9120,9 @@
       <c r="A164" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="B164" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>39</v>
       </c>
@@ -8593,6 +9162,9 @@
       <c r="A165" s="1" t="s">
         <v>349</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>39</v>
       </c>
@@ -8632,6 +9204,9 @@
       <c r="A166" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>39</v>
       </c>
@@ -8671,6 +9246,9 @@
       <c r="A167" s="1" t="s">
         <v>353</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>39</v>
       </c>
@@ -8710,6 +9288,9 @@
       <c r="A168" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>39</v>
       </c>
@@ -8749,6 +9330,9 @@
       <c r="A169" s="1" t="s">
         <v>357</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>39</v>
       </c>
@@ -8788,6 +9372,9 @@
       <c r="A170" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>39</v>
       </c>
@@ -8827,6 +9414,9 @@
       <c r="A171" s="1" t="s">
         <v>361</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>39</v>
       </c>
@@ -8866,6 +9456,9 @@
       <c r="A172" s="1" t="s">
         <v>363</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>39</v>
       </c>
@@ -8905,6 +9498,9 @@
       <c r="A173" s="1" t="s">
         <v>365</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>39</v>
       </c>
@@ -8944,6 +9540,9 @@
       <c r="A174" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>39</v>
       </c>
@@ -8983,6 +9582,9 @@
       <c r="A175" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>39</v>
       </c>
@@ -9022,6 +9624,9 @@
       <c r="A176" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>39</v>
       </c>
@@ -9061,6 +9666,9 @@
       <c r="A177" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>39</v>
       </c>
@@ -9100,6 +9708,9 @@
       <c r="A178" s="1" t="s">
         <v>375</v>
       </c>
+      <c r="B178" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>39</v>
       </c>
@@ -9139,6 +9750,9 @@
       <c r="A179" s="1" t="s">
         <v>377</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>39</v>
       </c>
@@ -9178,6 +9792,9 @@
       <c r="A180" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="B180" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>39</v>
       </c>
@@ -9217,6 +9834,9 @@
       <c r="A181" s="1" t="s">
         <v>380</v>
       </c>
+      <c r="B181" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>39</v>
       </c>
@@ -9256,6 +9876,9 @@
       <c r="A182" s="1" t="s">
         <v>381</v>
       </c>
+      <c r="B182" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>39</v>
       </c>
@@ -9295,6 +9918,9 @@
       <c r="A183" s="1" t="s">
         <v>382</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>39</v>
       </c>
@@ -9334,6 +9960,9 @@
       <c r="A184" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C184" s="1" t="s">
         <v>39</v>
       </c>
@@ -9373,6 +10002,9 @@
       <c r="A185" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="B185" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="C185" s="1" t="s">
         <v>39</v>
       </c>
@@ -9412,6 +10044,9 @@
       <c r="A186" s="1" t="s">
         <v>385</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C186" s="1" t="s">
         <v>39</v>
       </c>
@@ -9451,6 +10086,9 @@
       <c r="A187" s="1" t="s">
         <v>386</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C187" s="1" t="s">
         <v>39</v>
       </c>
@@ -9490,6 +10128,9 @@
       <c r="A188" s="1" t="s">
         <v>387</v>
       </c>
+      <c r="B188" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C188" s="1" t="s">
         <v>39</v>
       </c>
@@ -9529,6 +10170,9 @@
       <c r="A189" s="1" t="s">
         <v>388</v>
       </c>
+      <c r="B189" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C189" s="1" t="s">
         <v>39</v>
       </c>
@@ -9568,6 +10212,9 @@
       <c r="A190" s="1" t="s">
         <v>389</v>
       </c>
+      <c r="B190" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C190" s="1" t="s">
         <v>39</v>
       </c>
@@ -9607,6 +10254,9 @@
       <c r="A191" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C191" s="1" t="s">
         <v>39</v>
       </c>
@@ -9646,6 +10296,9 @@
       <c r="A192" s="1" t="s">
         <v>391</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C192" s="1" t="s">
         <v>39</v>
       </c>
@@ -9685,6 +10338,9 @@
       <c r="A193" s="1" t="s">
         <v>392</v>
       </c>
+      <c r="B193" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C193" s="1" t="s">
         <v>39</v>
       </c>
@@ -9724,6 +10380,9 @@
       <c r="A194" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="B194" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="C194" s="1" t="s">
         <v>39</v>
       </c>
@@ -9763,6 +10422,9 @@
       <c r="A195" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="B195" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C195" s="1" t="s">
         <v>39</v>
       </c>
@@ -9802,6 +10464,9 @@
       <c r="A196" s="1" t="s">
         <v>395</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="C196" s="1" t="s">
         <v>39</v>
       </c>
@@ -9841,6 +10506,9 @@
       <c r="A197" s="1" t="s">
         <v>396</v>
       </c>
+      <c r="B197" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="C197" s="1" t="s">
         <v>39</v>
       </c>
@@ -9879,30 +10547,57 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D32">
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D45">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D52">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:D125">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:D45">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D52">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:D138">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139:D143 D35">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D179">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D180:D197">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B32">
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B45">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B52">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B125">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B137:B138">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B139:B143 B35">
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144:B179">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B180:B197">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D197">
+  <conditionalFormatting sqref="B130">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CDD1C6-3DF3-468E-8E49-B95930D6D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE622DF-1BCE-4AD0-BD75-E40BAADDFE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="4065" windowWidth="30825" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="554">
   <si>
     <t>id</t>
   </si>
@@ -1279,6 +1279,459 @@
   </si>
   <si>
     <t>necklace,weapon</t>
+  </si>
+  <si>
+    <t>黄金之</t>
+  </si>
+  <si>
+    <t>铂金之</t>
+  </si>
+  <si>
+    <t>阴燃之</t>
+  </si>
+  <si>
+    <t>烟熏之</t>
+  </si>
+  <si>
+    <t>锋利之</t>
+  </si>
+  <si>
+    <t>锐利之</t>
+  </si>
+  <si>
+    <t>北风之</t>
+  </si>
+  <si>
+    <t>蜂鸣之</t>
+  </si>
+  <si>
+    <t>腐蚀之</t>
+  </si>
+  <si>
+    <t>残忍之</t>
+  </si>
+  <si>
+    <t>颤栗之</t>
+  </si>
+  <si>
+    <t>弧光之</t>
+  </si>
+  <si>
+    <t>剧毒之</t>
+  </si>
+  <si>
+    <t>光辉之</t>
+  </si>
+  <si>
+    <t>桃木之</t>
+  </si>
+  <si>
+    <t>折磨之</t>
+  </si>
+  <si>
+    <t>克星之</t>
+  </si>
+  <si>
+    <t>医者之</t>
+  </si>
+  <si>
+    <t>钻石之</t>
+  </si>
+  <si>
+    <t>红宝石之</t>
+  </si>
+  <si>
+    <t>蓝宝石之</t>
+  </si>
+  <si>
+    <t>黄宝石之</t>
+  </si>
+  <si>
+    <t>绿宝石之</t>
+  </si>
+  <si>
+    <t>棘刺之</t>
+  </si>
+  <si>
+    <t>熔岩之</t>
+  </si>
+  <si>
+    <t>冰锥之</t>
+  </si>
+  <si>
+    <t>结界之</t>
+  </si>
+  <si>
+    <t>疫病之</t>
+  </si>
+  <si>
+    <t>猛犸之</t>
+  </si>
+  <si>
+    <t>灵狐之</t>
+  </si>
+  <si>
+    <t>德鲁伊之</t>
+  </si>
+  <si>
+    <t>灰白之</t>
+  </si>
+  <si>
+    <t>猩红之</t>
+  </si>
+  <si>
+    <t>橘黄之</t>
+  </si>
+  <si>
+    <t>青绿之</t>
+  </si>
+  <si>
+    <t>深蓝之</t>
+  </si>
+  <si>
+    <t>壁垒之</t>
+  </si>
+  <si>
+    <t>要塞之</t>
+  </si>
+  <si>
+    <t>教堂之</t>
+  </si>
+  <si>
+    <t>堡垒之</t>
+  </si>
+  <si>
+    <t>熔炉之</t>
+  </si>
+  <si>
+    <t>亡者之</t>
+  </si>
+  <si>
+    <t>妖魔之</t>
+  </si>
+  <si>
+    <t>精英之</t>
+  </si>
+  <si>
+    <t>勇士之</t>
+  </si>
+  <si>
+    <t>战术之</t>
+  </si>
+  <si>
+    <t>忍耐之</t>
+  </si>
+  <si>
+    <t>驯兽师之</t>
+  </si>
+  <si>
+    <t>flvlmage1</t>
+  </si>
+  <si>
+    <t>tlvlmage1</t>
+  </si>
+  <si>
+    <t>blvlwarr1</t>
+  </si>
+  <si>
+    <t>xlvlwarr1</t>
+  </si>
+  <si>
+    <t>hlvlwlok1</t>
+  </si>
+  <si>
+    <t>plvlwlok1</t>
+  </si>
+  <si>
+    <t>火山之</t>
+  </si>
+  <si>
+    <t>烈焰之</t>
+  </si>
+  <si>
+    <t>冰川之</t>
+  </si>
+  <si>
+    <t>冰冻之</t>
+  </si>
+  <si>
+    <t>法神之</t>
+  </si>
+  <si>
+    <t>战神之</t>
+  </si>
+  <si>
+    <t>天尊之</t>
+  </si>
+  <si>
+    <t>大师之</t>
+  </si>
+  <si>
+    <t>老兵之</t>
+  </si>
+  <si>
+    <t>狂战士之</t>
+  </si>
+  <si>
+    <t>愤怒之</t>
+  </si>
+  <si>
+    <t>始祖之</t>
+  </si>
+  <si>
+    <t>上古之</t>
+  </si>
+  <si>
+    <t>牧师之</t>
+  </si>
+  <si>
+    <t>传教士之</t>
+  </si>
+  <si>
+    <t>精通之</t>
+  </si>
+  <si>
+    <t>灵感之</t>
+  </si>
+  <si>
+    <t>角斗士之</t>
+  </si>
+  <si>
+    <t>运气之</t>
+  </si>
+  <si>
+    <t>财富之</t>
+  </si>
+  <si>
+    <t>学徒之</t>
+  </si>
+  <si>
+    <t>初学者之</t>
+  </si>
+  <si>
+    <t>技工之</t>
+  </si>
+  <si>
+    <t>专家之</t>
+  </si>
+  <si>
+    <t>统帅之</t>
+  </si>
+  <si>
+    <t>五行的</t>
+  </si>
+  <si>
+    <t>巨鲸的</t>
+  </si>
+  <si>
+    <t>古龙的</t>
+  </si>
+  <si>
+    <t>巨魔的</t>
+  </si>
+  <si>
+    <t>精灵的</t>
+  </si>
+  <si>
+    <t>快速的</t>
+  </si>
+  <si>
+    <t>迅捷的</t>
+  </si>
+  <si>
+    <t>绝缘的</t>
+  </si>
+  <si>
+    <t>弱点的</t>
+  </si>
+  <si>
+    <t>屠杀的</t>
+  </si>
+  <si>
+    <t>迷信的</t>
+  </si>
+  <si>
+    <t>愚者的</t>
+  </si>
+  <si>
+    <t>力量的</t>
+  </si>
+  <si>
+    <t>智慧的</t>
+  </si>
+  <si>
+    <t>精神的</t>
+  </si>
+  <si>
+    <t>活力的</t>
+  </si>
+  <si>
+    <t>吸血鬼的</t>
+  </si>
+  <si>
+    <t>魅魔的</t>
+  </si>
+  <si>
+    <t>火球的</t>
+  </si>
+  <si>
+    <t>火环的</t>
+  </si>
+  <si>
+    <t>地狱火的</t>
+  </si>
+  <si>
+    <t>大火球的</t>
+  </si>
+  <si>
+    <t>烈焰的</t>
+  </si>
+  <si>
+    <t>火墙的</t>
+  </si>
+  <si>
+    <t>诱惑的</t>
+  </si>
+  <si>
+    <t>雷电的</t>
+  </si>
+  <si>
+    <t>疾光的</t>
+  </si>
+  <si>
+    <t>雷光的</t>
+  </si>
+  <si>
+    <t>魔法盾的</t>
+  </si>
+  <si>
+    <t>冰咆哮的</t>
+  </si>
+  <si>
+    <t>基础的</t>
+  </si>
+  <si>
+    <t>攻杀的</t>
+  </si>
+  <si>
+    <t>刺杀的</t>
+  </si>
+  <si>
+    <t>半月的</t>
+  </si>
+  <si>
+    <t>十字的</t>
+  </si>
+  <si>
+    <t>烈火的</t>
+  </si>
+  <si>
+    <t>铁布衫的</t>
+  </si>
+  <si>
+    <t>猎犬的</t>
+  </si>
+  <si>
+    <t>龙皮的</t>
+  </si>
+  <si>
+    <t>野蛮的</t>
+  </si>
+  <si>
+    <t>霜冻踏地的</t>
+  </si>
+  <si>
+    <t>治愈的</t>
+  </si>
+  <si>
+    <t>狂战的</t>
+  </si>
+  <si>
+    <t>幽灵盾的</t>
+  </si>
+  <si>
+    <t>圣甲的</t>
+  </si>
+  <si>
+    <t>困魔的</t>
+  </si>
+  <si>
+    <t>隐身的</t>
+  </si>
+  <si>
+    <t>责难的</t>
+  </si>
+  <si>
+    <t>精神力的</t>
+  </si>
+  <si>
+    <t>施毒的</t>
+  </si>
+  <si>
+    <t>骷髅的</t>
+  </si>
+  <si>
+    <t>火符的</t>
+  </si>
+  <si>
+    <t>降魔的</t>
+  </si>
+  <si>
+    <t>神兽的</t>
+  </si>
+  <si>
+    <t>火球术的</t>
+  </si>
+  <si>
+    <t>大火球术的</t>
+  </si>
+  <si>
+    <t>雷电术的</t>
+  </si>
+  <si>
+    <t>降魔术的</t>
+  </si>
+  <si>
+    <t>火环术的</t>
+  </si>
+  <si>
+    <t>雷光术的</t>
+  </si>
+  <si>
+    <t>治愈术的</t>
+  </si>
+  <si>
+    <t>隐身术的</t>
+  </si>
+  <si>
+    <t>诅咒的</t>
+  </si>
+  <si>
+    <t>祝福的</t>
+  </si>
+  <si>
+    <t>士气的</t>
+  </si>
+  <si>
+    <t>粉碎的</t>
+  </si>
+  <si>
+    <t>恶毒的</t>
+  </si>
+  <si>
+    <t>破甲的</t>
+  </si>
+  <si>
+    <t>助燃的</t>
+  </si>
+  <si>
+    <t>伤寒的</t>
+  </si>
+  <si>
+    <t>定罪的</t>
+  </si>
+  <si>
+    <t>虚弱的</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1794,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1798,11 +2271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <pane ySplit="4" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150:B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1814,7 +2287,7 @@
     <col min="7" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="13.28515625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
@@ -1964,7 +2437,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2009,7 +2482,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2054,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2102,7 +2575,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>117</v>
@@ -2153,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2201,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2249,7 +2722,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2288,7 +2761,7 @@
         <v>366-366</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P79" si="3">_xlfn.LET(_xlpm.a,($E11+O$3*$G11)*(1+O$2),_xlpm.b,($F11+O$3*$H11)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <f t="shared" ref="P11:P85" si="3">_xlfn.LET(_xlpm.a,($E11+O$3*$G11)*(1+O$2),_xlpm.b,($F11+O$3*$H11)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
@@ -2297,7 +2770,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2345,7 +2818,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>412</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -2390,7 +2863,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>405</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -2435,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>413</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -2480,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -2525,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>415</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -2570,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -2615,7 +3088,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -2660,7 +3133,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>419</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -2705,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>418</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -2750,7 +3223,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>156</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -2795,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>421</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -2843,7 +3316,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>422</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -2891,7 +3364,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>159</v>
+        <v>423</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -2939,7 +3412,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>160</v>
+        <v>424</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -2987,7 +3460,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>161</v>
+        <v>425</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -3035,7 +3508,7 @@
         <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>285</v>
+        <v>426</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -3084,7 +3557,7 @@
         <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -3133,7 +3606,7 @@
         <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -3182,7 +3655,7 @@
         <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>288</v>
+        <v>429</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -3231,7 +3704,7 @@
         <v>294</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -3280,7 +3753,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -3325,7 +3798,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -3370,7 +3843,7 @@
         <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>295</v>
+        <v>433</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -3415,7 +3888,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -3443,7 +3916,7 @@
         <v>5-10</v>
       </c>
       <c r="N36" s="1" t="str">
-        <f t="shared" ref="N36:O63" si="12">_xlfn.LET(_xlpm.a,($E36+N$3*$G36)*(1+N$2),_xlpm.b,($F36+N$3*$H36)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" ref="N36:O69" si="12">_xlfn.LET(_xlpm.a,($E36+N$3*$G36)*(1+N$2),_xlpm.b,($F36+N$3*$H36)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>9.8-19.6</v>
       </c>
       <c r="O36" s="1" t="str">
@@ -3460,7 +3933,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>177</v>
+        <v>435</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -3505,7 +3978,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -3529,7 +4002,7 @@
         <v>399</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" ref="M38:O69" si="13">_xlfn.LET(_xlpm.a,($E38+M$3*$G38)*(1+M$2),_xlpm.b,($F38+M$3*$H38)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" ref="M38:O75" si="13">_xlfn.LET(_xlpm.a,($E38+M$3*$G38)*(1+M$2),_xlpm.b,($F38+M$3*$H38)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>10-20</v>
       </c>
       <c r="N38" s="1" t="str">
@@ -3550,7 +4023,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>436</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -3595,7 +4068,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>167</v>
+        <v>437</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -3640,7 +4113,7 @@
         <v>254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>253</v>
+        <v>439</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -3685,7 +4158,7 @@
         <v>256</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>255</v>
+        <v>443</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -3730,7 +4203,7 @@
         <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -3775,7 +4248,7 @@
         <v>258</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -3820,7 +4293,7 @@
         <v>259</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -3865,7 +4338,7 @@
         <v>270</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>263</v>
+        <v>444</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -3910,7 +4383,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>445</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -3955,7 +4428,7 @@
         <v>272</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>265</v>
+        <v>446</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -4000,7 +4473,7 @@
         <v>273</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>266</v>
+        <v>447</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -4045,7 +4518,7 @@
         <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>267</v>
+        <v>448</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -4090,7 +4563,7 @@
         <v>275</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>268</v>
+        <v>449</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -4135,7 +4608,7 @@
         <v>276</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -4180,7 +4653,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -4199,9 +4672,6 @@
       </c>
       <c r="H53" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M53" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4225,7 +4695,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>169</v>
+        <v>460</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -4244,9 +4714,6 @@
       </c>
       <c r="H54" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M54" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4267,16 +4734,16 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>451</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -4306,22 +4773,22 @@
         <v>6-18</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P55:P56" si="16">_xlfn.LET(_xlpm.a,($E55+O$3*$G55)*(1+O$2),_xlpm.b,($F55+O$3*$H55)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>178</v>
+        <v>459</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -4351,22 +4818,22 @@
         <v>6-18</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>461</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -4402,16 +4869,16 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -4424,9 +4891,6 @@
       </c>
       <c r="H58" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M58" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4447,16 +4911,16 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>465</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -4469,9 +4933,6 @@
       </c>
       <c r="H59" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M59" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4492,16 +4953,16 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>453</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>182</v>
+        <v>466</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -4531,22 +4992,22 @@
         <v>6-18</v>
       </c>
       <c r="P60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P60:P61" si="17">_xlfn.LET(_xlpm.a,($E60+O$3*$G60)*(1+O$2),_xlpm.b,($F60+O$3*$H60)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>50</v>
+        <v>454</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4576,67 +5037,67 @@
         <v>6-18</v>
       </c>
       <c r="P61" s="1">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="N62" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1-3</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>6-18</v>
+      </c>
+      <c r="P62" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
-      <c r="H62" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M62" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>1-2</v>
-      </c>
-      <c r="O62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>6-12</v>
-      </c>
-      <c r="P62" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>185</v>
+        <v>471</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -4649,9 +5110,6 @@
       </c>
       <c r="H63" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M63" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4672,16 +5130,16 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>186</v>
+        <v>469</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4695,19 +5153,16 @@
       <c r="H64" s="1">
         <v>0.5</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M64" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
       <c r="N64" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
       <c r="P64" s="1">
@@ -4717,106 +5172,106 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>455</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="1">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M65" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>3-10</v>
+        <v>1-1</v>
       </c>
       <c r="N65" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>7-40</v>
+        <f t="shared" si="12"/>
+        <v>1-3</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>42-240</v>
+        <f t="shared" si="12"/>
+        <v>6-18</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="3"/>
-        <v>141</v>
+        <f t="shared" ref="P65:P66" si="18">_xlfn.LET(_xlpm.a,($E65+O$3*$G65)*(1+O$2),_xlpm.b,($F65+O$3*$H65)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E66" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G66" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M66" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>10-30</v>
+        <v>1-1</v>
       </c>
       <c r="N66" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>30-110</v>
+        <f t="shared" si="12"/>
+        <v>1-3</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>180-660</v>
+        <f t="shared" si="12"/>
+        <v>6-18</v>
       </c>
       <c r="P66" s="1">
-        <f t="shared" si="3"/>
-        <v>420</v>
+        <f t="shared" si="18"/>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>189</v>
+        <v>463</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -4828,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>399</v>
@@ -4838,30 +5293,30 @@
         <v>1-1</v>
       </c>
       <c r="N67" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
+        <f t="shared" si="12"/>
+        <v>1-3</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>6-6</v>
+        <f t="shared" si="12"/>
+        <v>6-18</v>
       </c>
       <c r="P67" s="1">
-        <f t="shared" ref="P67" si="16">_xlfn.LET(_xlpm.a,($E67+O$3*$G67)*(1+O$2),_xlpm.b,($F67+O$3*$H67)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>472</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -4875,16 +5330,19 @@
       <c r="H68" s="1">
         <v>0.25</v>
       </c>
+      <c r="L68" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="M68" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
       <c r="N68" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1-2</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6-12</v>
       </c>
       <c r="P68" s="1">
@@ -4894,16 +5352,16 @@
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>189</v>
+        <v>473</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -4917,16 +5375,19 @@
       <c r="H69" s="1">
         <v>0.5</v>
       </c>
+      <c r="L69" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="M69" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
       <c r="N69" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
       <c r="P69" s="1">
@@ -4936,16 +5397,16 @@
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -4957,1156 +5418,1150 @@
         <v>0</v>
       </c>
       <c r="H70" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" ref="M70:O85" si="17">_xlfn.LET(_xlpm.a,($E70+M$3*$G70)*(1+M$2),_xlpm.b,($F70+M$3*$H70)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-4</v>
+        <f t="shared" si="13"/>
+        <v>1-3</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>6-24</v>
+        <f t="shared" si="13"/>
+        <v>6-18</v>
       </c>
       <c r="P70" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>189</v>
+        <v>475</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1">
-        <v>1</v>
+        <v>7.5</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="13"/>
+        <v>3-10</v>
       </c>
       <c r="N71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-5</v>
+        <f t="shared" si="13"/>
+        <v>7-40</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>6-30</v>
+        <f t="shared" si="13"/>
+        <v>42-240</v>
       </c>
       <c r="P71" s="1">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="13"/>
+        <v>10-30</v>
       </c>
       <c r="N72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
+        <f t="shared" si="13"/>
+        <v>30-110</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>6-6</v>
+        <f t="shared" si="13"/>
+        <v>180-660</v>
       </c>
       <c r="P72" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="N73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="O73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>6-6</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" ref="P73" si="19">_xlfn.LET(_xlpm.a,($E73+O$3*$G73)*(1+O$2),_xlpm.b,($F73+O$3*$H73)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="N74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
+      <c r="O74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>6-12</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="N75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>1-3</v>
+      </c>
+      <c r="O75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>6-18</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f t="shared" ref="M76:O91" si="20">_xlfn.LET(_xlpm.a,($E76+M$3*$G76)*(1+M$2),_xlpm.b,($F76+M$3*$H76)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="N76" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-4</v>
+      </c>
+      <c r="O76" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>6-24</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="N77" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-5</v>
+      </c>
+      <c r="O77" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>6-30</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="N78" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="O78" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>6-6</v>
+      </c>
+      <c r="P78" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="E79" s="1">
         <v>5</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F79" s="1">
         <v>10</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
-      <c r="H73" s="1">
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
         <v>5</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M73" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L79" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M79" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5-10</v>
       </c>
-      <c r="N73" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N79" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5-30</v>
       </c>
-      <c r="O73" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O79" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>30-180</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P79" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="1" t="s">
+    <row r="80" spans="1:16">
+      <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="E80" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F80" s="1">
         <v>10</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1">
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
         <v>5</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M74" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L80" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M80" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5-10</v>
       </c>
-      <c r="N74" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N80" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5-30</v>
       </c>
-      <c r="O74" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O80" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>30-180</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P80" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75" s="1" t="s">
+    <row r="81" spans="1:16">
+      <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
         <v>5</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G81" s="1">
         <v>2</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H81" s="1">
         <v>6</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M75" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L81" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>1-5</v>
       </c>
-      <c r="N75" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N81" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>9-29</v>
       </c>
-      <c r="O75" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O81" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>54-174</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P81" s="1">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
-      <c r="A76" s="1" t="s">
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="1">
+      <c r="E82" s="1">
         <v>2</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F82" s="1">
         <v>7</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G82" s="1">
         <v>3</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H82" s="1">
         <v>10</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M76" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L82" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>2-7</v>
       </c>
-      <c r="N76" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N82" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>14-47</v>
       </c>
-      <c r="O76" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O82" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>84-282</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P82" s="1">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77" s="1" t="s">
+    <row r="83" spans="1:16">
+      <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
-      <c r="H77" s="1">
-        <v>0</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M77" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
-      </c>
-      <c r="N77" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-1</v>
-      </c>
-      <c r="O77" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="N83" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="O83" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>6-6</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P83" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
-      <c r="A78" s="1" t="s">
+    <row r="84" spans="1:16">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E78" s="1">
+      <c r="E84" s="1">
         <v>0.5</v>
       </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1">
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
         <v>0.12</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H84" s="1">
         <v>0.4</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M78" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L84" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>0.5-1</v>
       </c>
-      <c r="N78" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N84" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>0.98-2.6</v>
       </c>
-      <c r="O78" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O84" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P84" s="1">
         <f t="shared" si="3"/>
         <v>10.74</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="1" t="s">
+    <row r="85" spans="1:16">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E79" s="1">
+      <c r="E85" s="1">
         <v>0.5</v>
       </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1">
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1">
         <v>0.12</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M79" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L85" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>0.5-1</v>
       </c>
-      <c r="N79" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="N85" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>0.98-2.6</v>
       </c>
-      <c r="O79" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="O85" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P85" s="1">
         <f t="shared" si="3"/>
         <v>10.74</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H80" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M80" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
-      </c>
-      <c r="N80" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1.4-8</v>
-      </c>
-      <c r="O80" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>8.4-48</v>
-      </c>
-      <c r="P80" s="1">
-        <f t="shared" ref="P80" si="18">_xlfn.LET(_xlpm.a,($E80+O$3*$G80)*(1+O$2),_xlpm.b,($F80+O$3*$H80)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="1">
-        <v>20</v>
-      </c>
-      <c r="F81" s="1">
-        <v>40</v>
-      </c>
-      <c r="G81" s="1">
-        <v>5</v>
-      </c>
-      <c r="H81" s="1">
-        <v>50</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M81" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>20-40</v>
-      </c>
-      <c r="N81" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>40-240</v>
-      </c>
-      <c r="O81" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>240-1440</v>
-      </c>
-      <c r="P81" s="1">
-        <f t="shared" ref="P81:P82" si="19">_xlfn.LET(_xlpm.a,($E81+O$3*$G81)*(1+O$2),_xlpm.b,($F81+O$3*$H81)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2</v>
-      </c>
-      <c r="G82" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H82" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M82" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-2</v>
-      </c>
-      <c r="N82" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1.4-8</v>
-      </c>
-      <c r="O82" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>8.4-48</v>
-      </c>
-      <c r="P82" s="1">
-        <f t="shared" si="19"/>
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" s="1">
-        <v>20</v>
-      </c>
-      <c r="F83" s="1">
-        <v>40</v>
-      </c>
-      <c r="G83" s="1">
-        <v>5</v>
-      </c>
-      <c r="H83" s="1">
-        <v>50</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M83" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>20-40</v>
-      </c>
-      <c r="N83" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>40-240</v>
-      </c>
-      <c r="O83" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>240-1440</v>
-      </c>
-      <c r="P83" s="1">
-        <f t="shared" ref="P83" si="20">_xlfn.LET(_xlpm.a,($E83+O$3*$G83)*(1+O$2),_xlpm.b,($F83+O$3*$H83)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>4</v>
-      </c>
-      <c r="G84" s="1">
-        <v>2</v>
-      </c>
-      <c r="H84" s="1">
-        <v>24</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-4</v>
-      </c>
-      <c r="N84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>9-100</v>
-      </c>
-      <c r="O84" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>54-600</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" ref="P84" si="21">_xlfn.LET(_xlpm.a,($E84+O$3*$G84)*(1+O$2),_xlpm.b,($F84+O$3*$H84)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85" s="1">
-        <v>1</v>
-      </c>
-      <c r="F85" s="1">
-        <v>4</v>
-      </c>
-      <c r="G85" s="1">
-        <v>2</v>
-      </c>
-      <c r="H85" s="1">
-        <v>24</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>1-4</v>
-      </c>
-      <c r="N85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>9-100</v>
-      </c>
-      <c r="O85" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>54-600</v>
-      </c>
-      <c r="P85" s="1">
-        <f t="shared" ref="P85:P87" si="22">_xlfn.LET(_xlpm.a,($E85+O$3*$G85)*(1+O$2),_xlpm.b,($F85+O$3*$H85)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>327</v>
-      </c>
-    </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>238</v>
+        <v>490</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G86" s="1">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H86" s="1">
-        <v>24</v>
+        <v>1.5</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M86" s="1" t="str">
-        <f t="shared" ref="M86:O101" si="23">_xlfn.LET(_xlpm.a,($E86+M$3*$G86)*(1+M$2),_xlpm.b,($F86+M$3*$H86)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-4</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
       <c r="N86" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>9-100</v>
+        <f t="shared" si="20"/>
+        <v>1.4-8</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>54-600</v>
+        <f t="shared" si="20"/>
+        <v>8.4-48</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="22"/>
-        <v>327</v>
+        <f t="shared" ref="P86" si="21">_xlfn.LET(_xlpm.a,($E86+O$3*$G86)*(1+O$2),_xlpm.b,($F86+O$3*$H86)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>28.2</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F87" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G87" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H87" s="1">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M87" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-4</v>
+        <f t="shared" si="20"/>
+        <v>20-40</v>
       </c>
       <c r="N87" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>9-100</v>
+        <f t="shared" si="20"/>
+        <v>40-240</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>54-600</v>
+        <f t="shared" si="20"/>
+        <v>240-1440</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="22"/>
-        <v>327</v>
+        <f t="shared" ref="P87:P88" si="22">_xlfn.LET(_xlpm.a,($E87+O$3*$G87)*(1+O$2),_xlpm.b,($F87+O$3*$H87)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>206</v>
+        <v>492</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E88" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F88" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="1">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H88" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M88" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>0.5-1</v>
+        <f t="shared" si="20"/>
+        <v>1-2</v>
       </c>
       <c r="N88" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>2.5-5</v>
+        <f t="shared" si="20"/>
+        <v>1.4-8</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>15-30</v>
+        <f t="shared" si="20"/>
+        <v>8.4-48</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" ref="P88" si="24">_xlfn.LET(_xlpm.a,($E88+O$3*$G88)*(1+O$2),_xlpm.b,($F88+O$3*$H88)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>22.5</v>
+        <f t="shared" si="22"/>
+        <v>28.2</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E89" s="1">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="F89" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G89" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H89" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M89" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>0.5-1</v>
+        <f t="shared" si="20"/>
+        <v>20-40</v>
       </c>
       <c r="N89" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>2.5-5</v>
+        <f t="shared" si="20"/>
+        <v>40-240</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>15-30</v>
+        <f t="shared" si="20"/>
+        <v>240-1440</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" ref="P89" si="25">_xlfn.LET(_xlpm.a,($E89+O$3*$G89)*(1+O$2),_xlpm.b,($F89+O$3*$H89)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>22.5</v>
+        <f t="shared" ref="P89" si="23">_xlfn.LET(_xlpm.a,($E89+O$3*$G89)*(1+O$2),_xlpm.b,($F89+O$3*$H89)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>840</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>208</v>
+        <v>494</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" s="1">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M90" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-4</v>
       </c>
       <c r="N90" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="20"/>
+        <v>9-100</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="20"/>
+        <v>54-600</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" ref="P90" si="26">_xlfn.LET(_xlpm.a,($E90+O$3*$G90)*(1+O$2),_xlpm.b,($F90+O$3*$H90)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>12</v>
+        <f t="shared" ref="P90" si="24">_xlfn.LET(_xlpm.a,($E90+O$3*$G90)*(1+O$2),_xlpm.b,($F90+O$3*$H90)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>209</v>
+        <v>495</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="1">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M91" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" si="20"/>
+        <v>1-4</v>
       </c>
       <c r="N91" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="20"/>
+        <v>9-100</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="20"/>
+        <v>54-600</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" ref="P91:P125" si="27">_xlfn.LET(_xlpm.a,($E91+O$3*$G91)*(1+O$2),_xlpm.b,($F91+O$3*$H91)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>12</v>
+        <f t="shared" ref="P91:P93" si="25">_xlfn.LET(_xlpm.a,($E91+O$3*$G91)*(1+O$2),_xlpm.b,($F91+O$3*$H91)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>210</v>
+        <v>496</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="1">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M92" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" ref="M92:O107" si="26">_xlfn.LET(_xlpm.a,($E92+M$3*$G92)*(1+M$2),_xlpm.b,($F92+M$3*$H92)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-4</v>
       </c>
       <c r="N92" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="26"/>
+        <v>9-100</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="26"/>
+        <v>54-600</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <f t="shared" si="25"/>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>211</v>
+        <v>497</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
       </c>
       <c r="F93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="1">
-        <v>0.5</v>
+        <v>24</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M93" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" si="26"/>
+        <v>1-4</v>
       </c>
       <c r="N93" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="26"/>
+        <v>9-100</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="26"/>
+        <v>54-600</v>
       </c>
       <c r="P93" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <f t="shared" si="25"/>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>498</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F94" s="1">
         <v>1</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H94" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M94" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" si="26"/>
+        <v>0.5-1</v>
       </c>
       <c r="N94" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="26"/>
+        <v>2.5-5</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="26"/>
+        <v>15-30</v>
       </c>
       <c r="P94" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <f t="shared" ref="P94" si="27">_xlfn.LET(_xlpm.a,($E94+O$3*$G94)*(1+O$2),_xlpm.b,($F94+O$3*$H94)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>213</v>
+        <v>499</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H95" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M95" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-1</v>
+        <f t="shared" si="26"/>
+        <v>0.5-1</v>
       </c>
       <c r="N95" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>1-3</v>
+        <f t="shared" si="26"/>
+        <v>2.5-5</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>6-18</v>
+        <f t="shared" si="26"/>
+        <v>15-30</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <f t="shared" ref="P95" si="28">_xlfn.LET(_xlpm.a,($E95+O$3*$G95)*(1+O$2),_xlpm.b,($F95+O$3*$H95)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>214</v>
+        <v>500</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -6124,34 +6579,34 @@
         <v>399</v>
       </c>
       <c r="M96" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N96" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="P96" si="29">_xlfn.LET(_xlpm.a,($E96+O$3*$G96)*(1+O$2),_xlpm.b,($F96+O$3*$H96)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>215</v>
+        <v>501</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -6169,34 +6624,34 @@
         <v>399</v>
       </c>
       <c r="M97" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N97" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="P97:P131" si="30">_xlfn.LET(_xlpm.a,($E97+O$3*$G97)*(1+O$2),_xlpm.b,($F97+O$3*$H97)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>502</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -6214,34 +6669,34 @@
         <v>399</v>
       </c>
       <c r="M98" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N98" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P98" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>217</v>
+        <v>503</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -6259,34 +6714,34 @@
         <v>399</v>
       </c>
       <c r="M99" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N99" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P99" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -6304,34 +6759,34 @@
         <v>399</v>
       </c>
       <c r="M100" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N100" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>219</v>
+        <v>505</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -6349,34 +6804,34 @@
         <v>399</v>
       </c>
       <c r="M101" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N101" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P101" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>506</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -6394,34 +6849,34 @@
         <v>399</v>
       </c>
       <c r="M102" s="1" t="str">
-        <f t="shared" ref="M102:O127" si="28">_xlfn.LET(_xlpm.a,($E102+M$3*$G102)*(1+M$2),_xlpm.b,($F102+M$3*$H102)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N102" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P102" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -6439,34 +6894,34 @@
         <v>399</v>
       </c>
       <c r="M103" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N103" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P103" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>508</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -6484,34 +6939,34 @@
         <v>399</v>
       </c>
       <c r="M104" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N104" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P104" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>509</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -6529,34 +6984,34 @@
         <v>399</v>
       </c>
       <c r="M105" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N105" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>224</v>
+        <v>510</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -6574,34 +7029,34 @@
         <v>399</v>
       </c>
       <c r="M106" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N106" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>225</v>
+        <v>511</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E107" s="1">
         <v>1</v>
@@ -6619,34 +7074,34 @@
         <v>399</v>
       </c>
       <c r="M107" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-1</v>
       </c>
       <c r="N107" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1-3</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
       <c r="P107" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -6664,34 +7119,34 @@
         <v>399</v>
       </c>
       <c r="M108" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="M108:O133" si="31">_xlfn.LET(_xlpm.a,($E108+M$3*$G108)*(1+M$2),_xlpm.b,($F108+M$3*$H108)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
       </c>
       <c r="N108" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P108" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>227</v>
+        <v>513</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -6709,34 +7164,34 @@
         <v>399</v>
       </c>
       <c r="M109" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N109" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P109" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>228</v>
+        <v>514</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -6754,34 +7209,34 @@
         <v>399</v>
       </c>
       <c r="M110" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N110" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P110" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>229</v>
+        <v>515</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -6799,34 +7254,34 @@
         <v>399</v>
       </c>
       <c r="M111" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N111" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P111" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>230</v>
+        <v>516</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -6844,34 +7299,34 @@
         <v>399</v>
       </c>
       <c r="M112" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N112" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P112" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>231</v>
+        <v>517</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -6889,34 +7344,34 @@
         <v>399</v>
       </c>
       <c r="M113" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N113" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P113" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>232</v>
+        <v>518</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -6934,34 +7389,34 @@
         <v>399</v>
       </c>
       <c r="M114" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N114" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P114" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>233</v>
+        <v>519</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -6979,34 +7434,34 @@
         <v>399</v>
       </c>
       <c r="M115" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N115" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P115" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>234</v>
+        <v>524</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -7024,34 +7479,34 @@
         <v>399</v>
       </c>
       <c r="M116" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N116" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P116" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>235</v>
+        <v>520</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -7069,34 +7524,34 @@
         <v>399</v>
       </c>
       <c r="M117" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N117" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P117" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>244</v>
+        <v>521</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -7114,34 +7569,34 @@
         <v>399</v>
       </c>
       <c r="M118" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N118" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P118" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>245</v>
+        <v>522</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -7159,34 +7614,34 @@
         <v>399</v>
       </c>
       <c r="M119" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N119" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P119" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>246</v>
+        <v>523</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -7204,34 +7659,34 @@
         <v>399</v>
       </c>
       <c r="M120" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N120" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P120" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>247</v>
+        <v>525</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -7249,34 +7704,34 @@
         <v>399</v>
       </c>
       <c r="M121" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N121" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P121" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>248</v>
+        <v>528</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -7294,34 +7749,34 @@
         <v>399</v>
       </c>
       <c r="M122" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N122" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P122" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>249</v>
+        <v>526</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -7339,34 +7794,34 @@
         <v>399</v>
       </c>
       <c r="M123" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N123" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P123" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>250</v>
+        <v>527</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -7384,34 +7839,34 @@
         <v>399</v>
       </c>
       <c r="M124" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N124" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P124" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>251</v>
+        <v>529</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -7429,34 +7884,34 @@
         <v>399</v>
       </c>
       <c r="M125" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N125" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
       <c r="P125" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>397</v>
+        <v>530</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -7468,43 +7923,40 @@
         <v>0</v>
       </c>
       <c r="H126" s="1">
-        <v>2</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>119</v>
+        <v>0.5</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M126" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N126" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>1-9</v>
+        <f t="shared" si="31"/>
+        <v>1-3</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>6-54</v>
+        <f t="shared" si="31"/>
+        <v>6-18</v>
       </c>
       <c r="P126" s="1">
-        <f t="shared" ref="P126" si="29">_xlfn.LET(_xlpm.a,($E126+O$3*$G126)*(1+O$2),_xlpm.b,($F126+O$3*$H126)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -7516,43 +7968,40 @@
         <v>0</v>
       </c>
       <c r="H127" s="1">
-        <v>2</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>120</v>
+        <v>0.5</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M127" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N127" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>1-9</v>
+        <f t="shared" si="31"/>
+        <v>1-3</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>6-54</v>
+        <f t="shared" si="31"/>
+        <v>6-18</v>
       </c>
       <c r="P127" s="1">
-        <f t="shared" ref="P127:P133" si="30">_xlfn.LET(_xlpm.a,($E127+O$3*$G127)*(1+O$2),_xlpm.b,($F127+O$3*$H127)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>30</v>
+        <f t="shared" si="30"/>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>397</v>
+        <v>248</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -7564,43 +8013,40 @@
         <v>0</v>
       </c>
       <c r="H128" s="1">
-        <v>2</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>121</v>
+        <v>0.5</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M128" s="1" t="str">
-        <f t="shared" ref="M128:O143" si="31">_xlfn.LET(_xlpm.a,($E128+M$3*$G128)*(1+M$2),_xlpm.b,($F128+M$3*$H128)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" si="31"/>
         <v>1-1</v>
       </c>
       <c r="N128" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-3</v>
       </c>
       <c r="O128" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>6-54</v>
+        <v>6-18</v>
       </c>
       <c r="P128" s="1">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>397</v>
+        <v>533</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>397</v>
+        <v>249</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -7612,10 +8058,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="1">
-        <v>2</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>122</v>
+        <v>0.5</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>399</v>
@@ -7626,29 +8069,29 @@
       </c>
       <c r="N129" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-3</v>
       </c>
       <c r="O129" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>6-54</v>
+        <v>6-18</v>
       </c>
       <c r="P129" s="1">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>398</v>
+        <v>534</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>398</v>
+        <v>250</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -7660,10 +8103,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="1">
-        <v>2</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>123</v>
+        <v>0.5</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>399</v>
@@ -7674,29 +8114,29 @@
       </c>
       <c r="N130" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-3</v>
       </c>
       <c r="O130" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>6-54</v>
+        <v>6-18</v>
       </c>
       <c r="P130" s="1">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>398</v>
+        <v>535</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>398</v>
+        <v>251</v>
       </c>
       <c r="E131" s="1">
         <v>1</v>
@@ -7708,10 +8148,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="1">
-        <v>2</v>
-      </c>
-      <c r="K131" s="1" t="s">
-        <v>124</v>
+        <v>0.5</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>399</v>
@@ -7722,29 +8159,29 @@
       </c>
       <c r="N131" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-3</v>
       </c>
       <c r="O131" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>6-54</v>
+        <v>6-18</v>
       </c>
       <c r="P131" s="1">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -7759,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>399</v>
@@ -7777,22 +8214,22 @@
         <v>6-54</v>
       </c>
       <c r="P132" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="P132" si="32">_xlfn.LET(_xlpm.a,($E132+O$3*$G132)*(1+O$2),_xlpm.b,($F132+O$3*$H132)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>398</v>
+        <v>537</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -7807,7 +8244,7 @@
         <v>2</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>399</v>
@@ -7825,112 +8262,118 @@
         <v>6-54</v>
       </c>
       <c r="P133" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="P133:P139" si="33">_xlfn.LET(_xlpm.a,($E133+O$3*$G133)*(1+O$2),_xlpm.b,($F133+O$3*$H133)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>252</v>
+        <v>538</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
       </c>
       <c r="F134" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
       </c>
       <c r="H134" s="1">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M134" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-10</v>
+        <f t="shared" ref="M134:O149" si="34">_xlfn.LET(_xlpm.a,($E134+M$3*$G134)*(1+M$2),_xlpm.b,($F134+M$3*$H134)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
       </c>
       <c r="N134" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-15</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>6-90</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P134" s="1">
-        <f t="shared" ref="P134" si="32">_xlfn.LET(_xlpm.a,($E134+O$3*$G134)*(1+O$2),_xlpm.b,($F134+O$3*$H134)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>48</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>278</v>
+        <v>539</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G135" s="1">
         <v>0</v>
       </c>
       <c r="H135" s="1">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M135" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-10</v>
+        <f t="shared" si="34"/>
+        <v>1-1</v>
       </c>
       <c r="N135" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-15</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>6-90</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P135" s="1">
-        <f t="shared" ref="P135" si="33">_xlfn.LET(_xlpm.a,($E135+O$3*$G135)*(1+O$2),_xlpm.b,($F135+O$3*$H135)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>48</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>110</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>280</v>
+        <v>540</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -7942,604 +8385,634 @@
         <v>0</v>
       </c>
       <c r="H136" s="1">
-        <v>0.25</v>
+        <v>2</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M136" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1-1</v>
       </c>
       <c r="N136" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-2</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>6-12</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P136" s="1">
-        <f t="shared" ref="P136" si="34">_xlfn.LET(_xlpm.a,($E136+O$3*$G136)*(1+O$2),_xlpm.b,($F136+O$3*$H136)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>9</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
-        <v>283</v>
+        <v>107</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>281</v>
+        <v>541</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
       <c r="F137" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G137" s="1">
         <v>0</v>
       </c>
       <c r="H137" s="1">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M137" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-5</v>
+        <f t="shared" si="34"/>
+        <v>1-1</v>
       </c>
       <c r="N137" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-10</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>6-60</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P137" s="1">
-        <f t="shared" ref="P137:P138" si="35">_xlfn.LET(_xlpm.a,($E137+O$3*$G137)*(1+O$2),_xlpm.b,($F137+O$3*$H137)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>33</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
-        <v>284</v>
+        <v>108</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>282</v>
+        <v>542</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>282</v>
+        <v>398</v>
       </c>
       <c r="E138" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G138" s="1">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H138" s="1">
-        <v>8.75</v>
+        <v>2</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M138" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-15</v>
+        <f t="shared" si="34"/>
+        <v>1-1</v>
       </c>
       <c r="N138" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>10-50</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>60-300</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P138" s="1">
-        <f t="shared" si="35"/>
-        <v>180</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>296</v>
+        <v>543</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="E139" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G139" s="1">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="H139" s="1">
-        <v>1.25</v>
+        <v>2</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="L139" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M139" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>2.5-5</v>
+        <f t="shared" si="34"/>
+        <v>1-1</v>
       </c>
       <c r="N139" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-10</v>
+        <f t="shared" si="34"/>
+        <v>1-9</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>30-60</v>
+        <f t="shared" si="34"/>
+        <v>6-54</v>
       </c>
       <c r="P139" s="1">
-        <f t="shared" ref="P139" si="36">_xlfn.LET(_xlpm.a,($E139+O$3*$G139)*(1+O$2),_xlpm.b,($F139+O$3*$H139)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>45</v>
+        <f t="shared" si="33"/>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
-        <v>303</v>
+        <v>118</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>297</v>
+        <v>544</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="E140" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F140" s="1">
         <v>10</v>
       </c>
       <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
         <v>1.25</v>
       </c>
-      <c r="H140" s="1">
-        <v>2.5</v>
-      </c>
       <c r="L140" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M140" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-10</v>
+        <f t="shared" si="34"/>
+        <v>1-10</v>
       </c>
       <c r="N140" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>10-20</v>
+        <f t="shared" si="34"/>
+        <v>1-15</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>60-120</v>
+        <f t="shared" si="34"/>
+        <v>6-90</v>
       </c>
       <c r="P140" s="1">
-        <f t="shared" ref="P140:P179" si="37">_xlfn.LET(_xlpm.a,($E140+O$3*$G140)*(1+O$2),_xlpm.b,($F140+O$3*$H140)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>90</v>
+        <f t="shared" ref="P140" si="35">_xlfn.LET(_xlpm.a,($E140+O$3*$G140)*(1+O$2),_xlpm.b,($F140+O$3*$H140)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="1" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>298</v>
+        <v>545</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E141" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F141" s="1">
         <v>10</v>
       </c>
       <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
         <v>1.25</v>
       </c>
-      <c r="H141" s="1">
-        <v>2.5</v>
-      </c>
       <c r="L141" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M141" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-10</v>
+        <f t="shared" si="34"/>
+        <v>1-10</v>
       </c>
       <c r="N141" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>10-20</v>
+        <f t="shared" si="34"/>
+        <v>1-15</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>60-120</v>
+        <f t="shared" si="34"/>
+        <v>6-90</v>
       </c>
       <c r="P141" s="1">
-        <f t="shared" si="37"/>
-        <v>90</v>
+        <f t="shared" ref="P141" si="36">_xlfn.LET(_xlpm.a,($E141+O$3*$G141)*(1+O$2),_xlpm.b,($F141+O$3*$H141)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>299</v>
+        <v>546</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E142" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F142" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G142" s="1">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H142" s="1">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="L142" s="1" t="s">
         <v>399</v>
       </c>
       <c r="M142" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-10</v>
+        <f t="shared" si="34"/>
+        <v>1-1</v>
       </c>
       <c r="N142" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>10-20</v>
+        <f t="shared" si="34"/>
+        <v>1-2</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>60-120</v>
+        <f t="shared" si="34"/>
+        <v>6-12</v>
       </c>
       <c r="P142" s="1">
-        <f t="shared" si="37"/>
-        <v>90</v>
+        <f t="shared" ref="P142" si="37">_xlfn.LET(_xlpm.a,($E142+O$3*$G142)*(1+O$2),_xlpm.b,($F142+O$3*$H142)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>547</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
         <v>5</v>
       </c>
-      <c r="F143" s="1">
-        <v>10</v>
-      </c>
       <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
         <v>1.25</v>
       </c>
-      <c r="H143" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="M143" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>5-10</v>
+        <f t="shared" si="34"/>
+        <v>1-5</v>
       </c>
       <c r="N143" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>10-20</v>
+        <f t="shared" si="34"/>
+        <v>1-10</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>60-120</v>
+        <f t="shared" si="34"/>
+        <v>6-60</v>
       </c>
       <c r="P143" s="1">
-        <f t="shared" si="37"/>
-        <v>90</v>
+        <f t="shared" ref="P143:P144" si="38">_xlfn.LET(_xlpm.a,($E143+O$3*$G143)*(1+O$2),_xlpm.b,($F143+O$3*$H143)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="1" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>308</v>
+        <v>548</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="E144" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F144" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G144" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H144" s="1">
-        <v>0.5</v>
+        <v>8.75</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M144" s="1" t="str">
-        <f t="shared" ref="M144:O159" si="38">_xlfn.LET(_xlpm.a,($E144+M$3*$G144)*(1+M$2),_xlpm.b,($F144+M$3*$H144)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>5-15</v>
       </c>
       <c r="N144" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>10-50</v>
+      </c>
+      <c r="O144" s="1" t="str">
+        <f t="shared" si="34"/>
+        <v>60-300</v>
+      </c>
+      <c r="P144" s="1">
         <f t="shared" si="38"/>
-        <v>1-3</v>
-      </c>
-      <c r="O144" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
-      </c>
-      <c r="P144" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>310</v>
+        <v>549</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E145" s="1">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F145" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G145" s="1">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H145" s="1">
-        <v>0.5</v>
+        <v>1.25</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M145" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>2.5-5</v>
       </c>
       <c r="N145" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-3</v>
+        <f t="shared" si="34"/>
+        <v>5-10</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
+        <f t="shared" si="34"/>
+        <v>30-60</v>
       </c>
       <c r="P145" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" ref="P145" si="39">_xlfn.LET(_xlpm.a,($E145+O$3*$G145)*(1+O$2),_xlpm.b,($F145+O$3*$H145)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E146" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F146" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G146" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H146" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M146" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>5-10</v>
       </c>
       <c r="N146" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-3</v>
+        <f t="shared" si="34"/>
+        <v>10-20</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
+        <f t="shared" si="34"/>
+        <v>60-120</v>
       </c>
       <c r="P146" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" ref="P146:P185" si="40">_xlfn.LET(_xlpm.a,($E146+O$3*$G146)*(1+O$2),_xlpm.b,($F146+O$3*$H146)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>314</v>
+        <v>551</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E147" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G147" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H147" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M147" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>5-10</v>
       </c>
       <c r="N147" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-3</v>
+        <f t="shared" si="34"/>
+        <v>10-20</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
+        <f t="shared" si="34"/>
+        <v>60-120</v>
       </c>
       <c r="P147" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" si="40"/>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>316</v>
+        <v>552</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="E148" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F148" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G148" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H148" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M148" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>5-10</v>
       </c>
       <c r="N148" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-3</v>
+        <f t="shared" si="34"/>
+        <v>10-20</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
+        <f t="shared" si="34"/>
+        <v>60-120</v>
       </c>
       <c r="P148" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" si="40"/>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>318</v>
+        <v>553</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E149" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F149" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G149" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H149" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="M149" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-1</v>
+        <f t="shared" si="34"/>
+        <v>5-10</v>
       </c>
       <c r="N149" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>1-3</v>
+        <f t="shared" si="34"/>
+        <v>10-20</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>6-18</v>
+        <f t="shared" si="34"/>
+        <v>60-120</v>
       </c>
       <c r="P149" s="1">
-        <f t="shared" si="37"/>
-        <v>12</v>
+        <f t="shared" si="40"/>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -8554,34 +9027,34 @@
         <v>0.5</v>
       </c>
       <c r="M150" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="M150:O165" si="41">_xlfn.LET(_xlpm.a,($E150+M$3*$G150)*(1+M$2),_xlpm.b,($F150+M$3*$H150)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
       </c>
       <c r="N150" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P150" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -8596,34 +9069,34 @@
         <v>0.5</v>
       </c>
       <c r="M151" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N151" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P151" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -8638,34 +9111,34 @@
         <v>0.5</v>
       </c>
       <c r="M152" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N152" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P152" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
@@ -8680,34 +9153,34 @@
         <v>0.5</v>
       </c>
       <c r="M153" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N153" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:16">
       <c r="A154" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E154" s="1">
         <v>1</v>
@@ -8722,34 +9195,34 @@
         <v>0.5</v>
       </c>
       <c r="M154" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N154" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P154" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:16">
       <c r="A155" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E155" s="1">
         <v>1</v>
@@ -8764,34 +9237,34 @@
         <v>0.5</v>
       </c>
       <c r="M155" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N155" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P155" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:16">
       <c r="A156" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -8806,34 +9279,34 @@
         <v>0.5</v>
       </c>
       <c r="M156" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N156" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P156" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:16">
       <c r="A157" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
@@ -8848,34 +9321,34 @@
         <v>0.5</v>
       </c>
       <c r="M157" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N157" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P157" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:16">
       <c r="A158" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
@@ -8890,34 +9363,34 @@
         <v>0.5</v>
       </c>
       <c r="M158" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N158" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:16">
       <c r="A159" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="E159" s="1">
         <v>1</v>
@@ -8932,34 +9405,34 @@
         <v>0.5</v>
       </c>
       <c r="M159" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N159" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P159" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:16">
       <c r="A160" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -8974,34 +9447,34 @@
         <v>0.5</v>
       </c>
       <c r="M160" s="1" t="str">
-        <f t="shared" ref="M160:O181" si="39">_xlfn.LET(_xlpm.a,($E160+M$3*$G160)*(1+M$2),_xlpm.b,($F160+M$3*$H160)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N160" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P160" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E161" s="1">
         <v>1</v>
@@ -9016,34 +9489,34 @@
         <v>0.5</v>
       </c>
       <c r="M161" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N161" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P161" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E162" s="1">
         <v>1</v>
@@ -9058,34 +9531,34 @@
         <v>0.5</v>
       </c>
       <c r="M162" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N162" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P162" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -9100,34 +9573,34 @@
         <v>0.5</v>
       </c>
       <c r="M163" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N163" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P163" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
@@ -9142,34 +9615,34 @@
         <v>0.5</v>
       </c>
       <c r="M164" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N164" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P164" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E165" s="1">
         <v>1</v>
@@ -9184,34 +9657,34 @@
         <v>0.5</v>
       </c>
       <c r="M165" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-1</v>
       </c>
       <c r="N165" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
       <c r="P165" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
@@ -9226,34 +9699,34 @@
         <v>0.5</v>
       </c>
       <c r="M166" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="M166:O187" si="42">_xlfn.LET(_xlpm.a,($E166+M$3*$G166)*(1+M$2),_xlpm.b,($F166+M$3*$H166)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
       </c>
       <c r="N166" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P166" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
@@ -9268,34 +9741,34 @@
         <v>0.5</v>
       </c>
       <c r="M167" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N167" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P167" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
@@ -9310,34 +9783,34 @@
         <v>0.5</v>
       </c>
       <c r="M168" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N168" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P168" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E169" s="1">
         <v>1</v>
@@ -9352,34 +9825,34 @@
         <v>0.5</v>
       </c>
       <c r="M169" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N169" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P169" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="E170" s="1">
         <v>1</v>
@@ -9394,34 +9867,34 @@
         <v>0.5</v>
       </c>
       <c r="M170" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N170" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P170" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E171" s="1">
         <v>1</v>
@@ -9436,34 +9909,34 @@
         <v>0.5</v>
       </c>
       <c r="M171" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N171" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P171" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -9478,34 +9951,34 @@
         <v>0.5</v>
       </c>
       <c r="M172" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N172" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P172" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -9520,34 +9993,34 @@
         <v>0.5</v>
       </c>
       <c r="M173" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N173" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P173" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -9562,34 +10035,34 @@
         <v>0.5</v>
       </c>
       <c r="M174" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N174" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P174" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
@@ -9604,34 +10077,34 @@
         <v>0.5</v>
       </c>
       <c r="M175" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N175" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P175" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E176" s="1">
         <v>1</v>
@@ -9646,34 +10119,34 @@
         <v>0.5</v>
       </c>
       <c r="M176" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N176" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P176" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:16">
       <c r="A177" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
@@ -9688,34 +10161,34 @@
         <v>0.5</v>
       </c>
       <c r="M177" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N177" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P177" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:16">
       <c r="A178" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E178" s="1">
         <v>1</v>
@@ -9730,34 +10203,34 @@
         <v>0.5</v>
       </c>
       <c r="M178" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N178" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P178" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:16">
       <c r="A179" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
@@ -9772,34 +10245,34 @@
         <v>0.5</v>
       </c>
       <c r="M179" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N179" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
       <c r="P179" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:16">
       <c r="A180" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E180" s="1">
         <v>1</v>
@@ -9811,37 +10284,37 @@
         <v>0</v>
       </c>
       <c r="H180" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M180" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N180" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>1-1</v>
+        <f t="shared" si="42"/>
+        <v>1-3</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>6-6</v>
+        <f t="shared" si="42"/>
+        <v>6-18</v>
       </c>
       <c r="P180" s="1">
-        <f t="shared" ref="P180" si="40">_xlfn.LET(_xlpm.a,($E180+O$3*$G180)*(1+O$2),_xlpm.b,($F180+O$3*$H180)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:16">
       <c r="A181" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
@@ -9853,37 +10326,37 @@
         <v>0</v>
       </c>
       <c r="H181" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M181" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N181" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>1-1</v>
+        <f t="shared" si="42"/>
+        <v>1-3</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>6-6</v>
+        <f t="shared" si="42"/>
+        <v>6-18</v>
       </c>
       <c r="P181" s="1">
-        <f t="shared" ref="P181:P197" si="41">_xlfn.LET(_xlpm.a,($E181+O$3*$G181)*(1+O$2),_xlpm.b,($F181+O$3*$H181)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:16">
       <c r="A182" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E182" s="1">
         <v>1</v>
@@ -9895,37 +10368,37 @@
         <v>0</v>
       </c>
       <c r="H182" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M182" s="1" t="str">
-        <f t="shared" ref="M182:O197" si="42">_xlfn.LET(_xlpm.a,($E182+M$3*$G182)*(1+M$2),_xlpm.b,($F182+M$3*$H182)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="N182" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
       <c r="O182" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>6-6</v>
+        <v>6-18</v>
       </c>
       <c r="P182" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:16">
       <c r="A183" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
@@ -9937,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="H183" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M183" s="1" t="str">
         <f t="shared" si="42"/>
@@ -9945,29 +10418,29 @@
       </c>
       <c r="N183" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
       <c r="O183" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>6-6</v>
+        <v>6-18</v>
       </c>
       <c r="P183" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:16">
       <c r="A184" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E184" s="1">
         <v>1</v>
@@ -9979,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="H184" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M184" s="1" t="str">
         <f t="shared" si="42"/>
@@ -9987,29 +10460,29 @@
       </c>
       <c r="N184" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
       <c r="O184" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>6-6</v>
+        <v>6-18</v>
       </c>
       <c r="P184" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:16">
       <c r="A185" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E185" s="1">
         <v>1</v>
@@ -10021,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="H185" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M185" s="1" t="str">
         <f t="shared" si="42"/>
@@ -10029,29 +10502,29 @@
       </c>
       <c r="N185" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-1</v>
+        <v>1-3</v>
       </c>
       <c r="O185" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>6-6</v>
+        <v>6-18</v>
       </c>
       <c r="P185" s="1">
-        <f t="shared" si="41"/>
-        <v>6</v>
+        <f t="shared" si="40"/>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:16">
       <c r="A186" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
@@ -10078,22 +10551,22 @@
         <v>6-6</v>
       </c>
       <c r="P186" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="P186" si="43">_xlfn.LET(_xlpm.a,($E186+O$3*$G186)*(1+O$2),_xlpm.b,($F186+O$3*$H186)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
@@ -10120,22 +10593,22 @@
         <v>6-6</v>
       </c>
       <c r="P187" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="P187:P203" si="44">_xlfn.LET(_xlpm.a,($E187+O$3*$G187)*(1+O$2),_xlpm.b,($F187+O$3*$H187)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:16">
       <c r="A188" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E188" s="1">
         <v>1</v>
@@ -10150,34 +10623,34 @@
         <v>0</v>
       </c>
       <c r="M188" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="M188:O203" si="45">_xlfn.LET(_xlpm.a,($E188+M$3*$G188)*(1+M$2),_xlpm.b,($F188+M$3*$H188)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
       </c>
       <c r="N188" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P188" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:16">
       <c r="A189" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E189" s="1">
         <v>1</v>
@@ -10192,34 +10665,34 @@
         <v>0</v>
       </c>
       <c r="M189" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N189" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P189" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E190" s="1">
         <v>1</v>
@@ -10234,34 +10707,34 @@
         <v>0</v>
       </c>
       <c r="M190" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N190" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P190" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:16">
       <c r="A191" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
@@ -10276,34 +10749,34 @@
         <v>0</v>
       </c>
       <c r="M191" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N191" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P191" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:16">
       <c r="A192" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
@@ -10318,34 +10791,34 @@
         <v>0</v>
       </c>
       <c r="M192" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N192" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P192" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:16">
       <c r="A193" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E193" s="1">
         <v>1</v>
@@ -10360,34 +10833,34 @@
         <v>0</v>
       </c>
       <c r="M193" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N193" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P193" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:16">
       <c r="A194" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
@@ -10402,34 +10875,34 @@
         <v>0</v>
       </c>
       <c r="M194" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N194" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P194" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:16">
       <c r="A195" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
@@ -10444,34 +10917,34 @@
         <v>0</v>
       </c>
       <c r="M195" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N195" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P195" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:16">
       <c r="A196" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
@@ -10486,119 +10959,371 @@
         <v>0</v>
       </c>
       <c r="M196" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="N196" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
       <c r="P196" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:16">
       <c r="A197" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>1</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="M197" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N197" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O197" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P197" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16">
+      <c r="A198" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>1</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="M198" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N198" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O198" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P198" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16">
+      <c r="A199" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="M199" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N199" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O199" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P199" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16">
+      <c r="A200" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="M200" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N200" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O200" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P200" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16">
+      <c r="A201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N201" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O201" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P201" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16">
+      <c r="A202" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="M202" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N202" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O202" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>6-6</v>
+      </c>
+      <c r="P202" s="1">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16">
+      <c r="A203" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="C203" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="1">
-        <v>1</v>
-      </c>
-      <c r="G197" s="1">
-        <v>0</v>
-      </c>
-      <c r="H197" s="1">
-        <v>0</v>
-      </c>
-      <c r="M197" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
-      <c r="N197" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
-      <c r="O197" s="1" t="str">
-        <f t="shared" si="42"/>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="M203" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="N203" s="1" t="str">
+        <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="O203" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P197" s="1">
-        <f t="shared" si="41"/>
+      <c r="P203" s="1">
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:B32">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B45">
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:B51">
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B131">
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B136">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143:B144">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B145:B149 B35">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B150:B185">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B186:B203">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D32">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D45">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D52">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90:D125">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+  <conditionalFormatting sqref="D96:D131">
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D138">
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+  <conditionalFormatting sqref="D143:D144">
+    <cfRule type="duplicateValues" dxfId="5" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D139:D143 D35">
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
+  <conditionalFormatting sqref="D145:D149 D35">
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D144:D179">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  <conditionalFormatting sqref="D150:D185">
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D180:D197">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B32">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B45">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46:B52">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B125">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137:B138">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139:B143 B35">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144:B179">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B180:B197">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D186:D203">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nef\workspace\gvbasic-mir-remaster\configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE622DF-1BCE-4AD0-BD75-E40BAADDFE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E7D824-2B6D-4408-80CB-558EBE4F4094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16090" yWindow="0" windowWidth="22400" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="561">
   <si>
     <t>id</t>
   </si>
@@ -1278,9 +1278,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>necklace,weapon</t>
-  </si>
-  <si>
     <t>黄金之</t>
   </si>
   <si>
@@ -1732,6 +1729,30 @@
   </si>
   <si>
     <t>虚弱的</t>
+  </si>
+  <si>
+    <t>necklace,armor</t>
+  </si>
+  <si>
+    <t>necklace,charm</t>
+  </si>
+  <si>
+    <t>necklace,armor,charm</t>
+  </si>
+  <si>
+    <t>necklace,charm,ring</t>
+  </si>
+  <si>
+    <t>necklace,weapon,charm,ring</t>
+  </si>
+  <si>
+    <t>necklace,ring</t>
+  </si>
+  <si>
+    <t>necklace,armor,ring</t>
+  </si>
+  <si>
+    <t>necklace,armor,charm,ring</t>
   </si>
 </sst>
 </file>
@@ -1794,27 +1815,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2274,21 +2275,21 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150:B185"/>
+      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="1" customWidth="1"/>
+    <col min="13" max="15" width="13.26953125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2437,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2458,7 +2459,7 @@
         <v>0.4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>399</v>
+        <v>556</v>
       </c>
       <c r="M5" s="1" t="str">
         <f t="shared" ref="M5:M13" si="0">_xlfn.LET(_xlpm.a,($E5+M$3*$G5)*(1+M$2),_xlpm.b,($F5+M$3*$H5)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -2482,7 +2483,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2503,7 +2504,7 @@
         <v>0.4</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>399</v>
+        <v>556</v>
       </c>
       <c r="M6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2527,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2551,7 +2552,7 @@
         <v>0.15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2575,7 +2576,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>117</v>
@@ -2602,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2626,7 +2627,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2650,7 +2651,7 @@
         <v>0.15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2674,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2698,7 +2699,7 @@
         <v>0.15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2722,7 +2723,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2746,7 +2747,7 @@
         <v>0.15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2770,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -2794,7 +2795,7 @@
         <v>0.15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>402</v>
+        <v>557</v>
       </c>
       <c r="M12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2818,7 +2819,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -2839,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2863,7 +2864,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -2884,7 +2885,7 @@
         <v>75</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M14" s="1" t="str">
         <f t="shared" ref="M14:O35" si="4">_xlfn.LET(_xlpm.a,($E14+M$3*$G14)*(1+M$2),_xlpm.b,($F14+M$3*$H14)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -2908,7 +2909,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -2929,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M15" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2953,7 +2954,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -2974,7 +2975,7 @@
         <v>75</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2998,7 +2999,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -3019,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M17" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3043,7 +3044,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -3064,7 +3065,7 @@
         <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M18" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3088,7 +3089,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -3109,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M19" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3133,7 +3134,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -3154,7 +3155,7 @@
         <v>75</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M20" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3178,7 +3179,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -3199,7 +3200,7 @@
         <v>75</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M21" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3223,7 +3224,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -3244,7 +3245,7 @@
         <v>75</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M22" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3268,7 +3269,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -3292,7 +3293,7 @@
         <v>0.15</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M23" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3316,7 +3317,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -3340,7 +3341,7 @@
         <v>0.15</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M24" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3364,7 +3365,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -3388,7 +3389,7 @@
         <v>0.15</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M25" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3412,7 +3413,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -3436,7 +3437,7 @@
         <v>0.15</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M26" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3460,7 +3461,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -3484,7 +3485,7 @@
         <v>0.15</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M27" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3508,7 +3509,7 @@
         <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -3533,7 +3534,7 @@
         <v>3.15</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M28" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3557,7 +3558,7 @@
         <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -3582,7 +3583,7 @@
         <v>2.4</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M29" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3606,7 +3607,7 @@
         <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -3631,7 +3632,7 @@
         <v>3.75</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M30" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3655,7 +3656,7 @@
         <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -3680,7 +3681,7 @@
         <v>1.75</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M31" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3704,7 +3705,7 @@
         <v>294</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -3729,7 +3730,7 @@
         <v>4.2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>399</v>
+        <v>553</v>
       </c>
       <c r="M32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3753,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -3774,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3798,7 +3799,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -3819,7 +3820,7 @@
         <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M34" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3843,7 +3844,7 @@
         <v>301</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -3864,7 +3865,7 @@
         <v>22.5</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M35" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3888,7 +3889,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -3909,7 +3910,7 @@
         <v>2.4</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M36" s="1" t="str">
         <f>_xlfn.LET(_xlpm.a,($E36+M$3*$G36)*(1+M$2),_xlpm.b,($F36+M$3*$H36)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -3933,7 +3934,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -3954,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M37" s="1" t="str">
         <f>_xlfn.LET(_xlpm.a,($E37+M$3*$G37)*(1+M$2),_xlpm.b,($F37+M$3*$H37)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -3978,7 +3979,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -3999,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M38" s="1" t="str">
         <f t="shared" ref="M38:O75" si="13">_xlfn.LET(_xlpm.a,($E38+M$3*$G38)*(1+M$2),_xlpm.b,($F38+M$3*$H38)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -4023,7 +4024,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -4044,7 +4045,7 @@
         <v>5</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M39" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4068,7 +4069,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
@@ -4089,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M40" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4113,7 +4114,7 @@
         <v>254</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -4132,9 +4133,6 @@
       </c>
       <c r="H41" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M41" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4158,7 +4156,7 @@
         <v>256</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
@@ -4177,9 +4175,6 @@
       </c>
       <c r="H42" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M42" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4203,7 +4198,7 @@
         <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>8</v>
@@ -4222,9 +4217,6 @@
       </c>
       <c r="H43" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M43" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4248,7 +4240,7 @@
         <v>258</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -4267,9 +4259,6 @@
       </c>
       <c r="H44" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M44" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4293,7 +4282,7 @@
         <v>259</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -4312,9 +4301,6 @@
       </c>
       <c r="H45" s="1">
         <v>0.5</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M45" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4338,7 +4324,7 @@
         <v>270</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -4359,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M46" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4383,7 +4369,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
@@ -4404,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M47" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4428,7 +4414,7 @@
         <v>272</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -4449,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M48" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4473,7 +4459,7 @@
         <v>273</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
@@ -4494,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M49" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4518,7 +4504,7 @@
         <v>274</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -4539,7 +4525,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M50" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4563,7 +4549,7 @@
         <v>275</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -4584,7 +4570,7 @@
         <v>2</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M51" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4608,7 +4594,7 @@
         <v>276</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -4629,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M52" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4653,7 +4639,7 @@
         <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -4695,7 +4681,7 @@
         <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -4734,10 +4720,10 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -4758,7 +4744,7 @@
         <v>0.5</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M55" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4779,10 +4765,10 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -4803,7 +4789,7 @@
         <v>0.5</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M56" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4827,7 +4813,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -4872,7 +4858,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -4914,7 +4900,7 @@
         <v>46</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -4953,10 +4939,10 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
@@ -4977,7 +4963,7 @@
         <v>0.5</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M60" s="1" t="str">
         <f t="shared" si="13"/>
@@ -4998,10 +4984,10 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
@@ -5022,7 +5008,7 @@
         <v>0.5</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M61" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5046,7 +5032,7 @@
         <v>47</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
@@ -5091,7 +5077,7 @@
         <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
@@ -5133,7 +5119,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
@@ -5172,10 +5158,10 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
@@ -5196,7 +5182,7 @@
         <v>0.5</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M65" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5217,10 +5203,10 @@
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
@@ -5241,7 +5227,7 @@
         <v>0.5</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>399</v>
+        <v>554</v>
       </c>
       <c r="M66" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5265,7 +5251,7 @@
         <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
@@ -5310,7 +5296,7 @@
         <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
@@ -5355,7 +5341,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
@@ -5400,7 +5386,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
@@ -5445,7 +5431,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
@@ -5466,7 +5452,7 @@
         <v>7.5</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="M71" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5490,7 +5476,7 @@
         <v>38</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
@@ -5511,7 +5497,7 @@
         <v>20</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="M72" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5535,7 +5521,7 @@
         <v>400</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
@@ -5580,7 +5566,7 @@
         <v>198</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
@@ -5622,7 +5608,7 @@
         <v>199</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
@@ -5664,7 +5650,7 @@
         <v>200</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
@@ -5706,7 +5692,7 @@
         <v>201</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
@@ -5748,7 +5734,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>39</v>
@@ -5790,7 +5776,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>39</v>
@@ -5811,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M79" s="1" t="str">
         <f t="shared" si="20"/>
@@ -5835,7 +5821,7 @@
         <v>92</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>39</v>
@@ -5856,7 +5842,7 @@
         <v>5</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M80" s="1" t="str">
         <f t="shared" si="20"/>
@@ -5880,7 +5866,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>39</v>
@@ -5901,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M81" s="1" t="str">
         <f t="shared" si="20"/>
@@ -5925,7 +5911,7 @@
         <v>94</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>39</v>
@@ -5946,7 +5932,7 @@
         <v>10</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M82" s="1" t="str">
         <f t="shared" si="20"/>
@@ -5970,7 +5956,7 @@
         <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>39</v>
@@ -5991,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M83" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6015,7 +6001,7 @@
         <v>96</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>39</v>
@@ -6036,7 +6022,7 @@
         <v>0.4</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M84" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6060,7 +6046,7 @@
         <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>39</v>
@@ -6081,7 +6067,7 @@
         <v>0.4</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M85" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6105,7 +6091,7 @@
         <v>98</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>39</v>
@@ -6126,7 +6112,7 @@
         <v>1.5</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M86" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6150,7 +6136,7 @@
         <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>39</v>
@@ -6171,7 +6157,7 @@
         <v>50</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M87" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6195,7 +6181,7 @@
         <v>100</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>39</v>
@@ -6216,7 +6202,7 @@
         <v>1.5</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M88" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6240,7 +6226,7 @@
         <v>101</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>39</v>
@@ -6261,7 +6247,7 @@
         <v>50</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M89" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6285,7 +6271,7 @@
         <v>239</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>39</v>
@@ -6306,7 +6292,7 @@
         <v>24</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M90" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6330,7 +6316,7 @@
         <v>240</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>39</v>
@@ -6351,7 +6337,7 @@
         <v>24</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M91" s="1" t="str">
         <f t="shared" si="20"/>
@@ -6375,7 +6361,7 @@
         <v>241</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>39</v>
@@ -6396,7 +6382,7 @@
         <v>24</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M92" s="1" t="str">
         <f t="shared" ref="M92:O107" si="26">_xlfn.LET(_xlpm.a,($E92+M$3*$G92)*(1+M$2),_xlpm.b,($F92+M$3*$H92)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -6420,7 +6406,7 @@
         <v>242</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>39</v>
@@ -6441,7 +6427,7 @@
         <v>24</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>399</v>
+        <v>560</v>
       </c>
       <c r="M93" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6465,7 +6451,7 @@
         <v>102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>39</v>
@@ -6486,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M94" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6510,7 +6496,7 @@
         <v>103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>39</v>
@@ -6531,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M95" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6555,7 +6541,7 @@
         <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>39</v>
@@ -6576,7 +6562,7 @@
         <v>0.5</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M96" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6600,7 +6586,7 @@
         <v>55</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>39</v>
@@ -6621,7 +6607,7 @@
         <v>0.5</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M97" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6645,7 +6631,7 @@
         <v>56</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>39</v>
@@ -6666,7 +6652,7 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M98" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6690,7 +6676,7 @@
         <v>57</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>39</v>
@@ -6711,7 +6697,7 @@
         <v>0.5</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M99" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6735,7 +6721,7 @@
         <v>58</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>39</v>
@@ -6756,7 +6742,7 @@
         <v>0.5</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M100" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6780,7 +6766,7 @@
         <v>59</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>39</v>
@@ -6801,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M101" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6825,7 +6811,7 @@
         <v>60</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>39</v>
@@ -6846,7 +6832,7 @@
         <v>0.5</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M102" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6870,7 +6856,7 @@
         <v>61</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>39</v>
@@ -6891,7 +6877,7 @@
         <v>0.5</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M103" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6915,7 +6901,7 @@
         <v>62</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>39</v>
@@ -6936,7 +6922,7 @@
         <v>0.5</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M104" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6960,7 +6946,7 @@
         <v>63</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>39</v>
@@ -6981,7 +6967,7 @@
         <v>0.5</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M105" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7005,7 +6991,7 @@
         <v>64</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>39</v>
@@ -7026,7 +7012,7 @@
         <v>0.5</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M106" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7050,7 +7036,7 @@
         <v>65</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>39</v>
@@ -7071,7 +7057,7 @@
         <v>0.5</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M107" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7095,7 +7081,7 @@
         <v>66</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>39</v>
@@ -7116,7 +7102,7 @@
         <v>0.5</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M108" s="1" t="str">
         <f t="shared" ref="M108:O133" si="31">_xlfn.LET(_xlpm.a,($E108+M$3*$G108)*(1+M$2),_xlpm.b,($F108+M$3*$H108)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -7140,7 +7126,7 @@
         <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>39</v>
@@ -7161,7 +7147,7 @@
         <v>0.5</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M109" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7185,7 +7171,7 @@
         <v>68</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>39</v>
@@ -7206,7 +7192,7 @@
         <v>0.5</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M110" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7230,7 +7216,7 @@
         <v>69</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>39</v>
@@ -7251,7 +7237,7 @@
         <v>0.5</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M111" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7275,7 +7261,7 @@
         <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>39</v>
@@ -7296,7 +7282,7 @@
         <v>0.5</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M112" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7320,7 +7306,7 @@
         <v>71</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>39</v>
@@ -7341,7 +7327,7 @@
         <v>0.5</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M113" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7365,7 +7351,7 @@
         <v>72</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>39</v>
@@ -7386,7 +7372,7 @@
         <v>0.5</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M114" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7410,7 +7396,7 @@
         <v>73</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>39</v>
@@ -7431,7 +7417,7 @@
         <v>0.5</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M115" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7455,7 +7441,7 @@
         <v>74</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>39</v>
@@ -7476,7 +7462,7 @@
         <v>0.5</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M116" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7500,7 +7486,7 @@
         <v>75</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>39</v>
@@ -7521,7 +7507,7 @@
         <v>0.5</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M117" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7545,7 +7531,7 @@
         <v>76</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>39</v>
@@ -7566,7 +7552,7 @@
         <v>0.5</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M118" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7590,7 +7576,7 @@
         <v>77</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>39</v>
@@ -7611,7 +7597,7 @@
         <v>0.5</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M119" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7635,7 +7621,7 @@
         <v>78</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>39</v>
@@ -7656,7 +7642,7 @@
         <v>0.5</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M120" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7680,7 +7666,7 @@
         <v>79</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>39</v>
@@ -7701,7 +7687,7 @@
         <v>0.5</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M121" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7725,7 +7711,7 @@
         <v>80</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>39</v>
@@ -7746,7 +7732,7 @@
         <v>0.5</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M122" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7770,7 +7756,7 @@
         <v>81</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>39</v>
@@ -7791,7 +7777,7 @@
         <v>0.5</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M123" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7815,7 +7801,7 @@
         <v>82</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>39</v>
@@ -7836,7 +7822,7 @@
         <v>0.5</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M124" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7860,7 +7846,7 @@
         <v>83</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>39</v>
@@ -7881,7 +7867,7 @@
         <v>0.5</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M125" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7905,7 +7891,7 @@
         <v>84</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>39</v>
@@ -7926,7 +7912,7 @@
         <v>0.5</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M126" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7950,7 +7936,7 @@
         <v>85</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>39</v>
@@ -7971,7 +7957,7 @@
         <v>0.5</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M127" s="1" t="str">
         <f t="shared" si="31"/>
@@ -7995,7 +7981,7 @@
         <v>86</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>39</v>
@@ -8016,7 +8002,7 @@
         <v>0.5</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M128" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8040,7 +8026,7 @@
         <v>87</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>39</v>
@@ -8061,7 +8047,7 @@
         <v>0.5</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M129" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8085,7 +8071,7 @@
         <v>88</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>39</v>
@@ -8106,7 +8092,7 @@
         <v>0.5</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M130" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8130,7 +8116,7 @@
         <v>89</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>39</v>
@@ -8151,7 +8137,7 @@
         <v>0.5</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M131" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8175,7 +8161,7 @@
         <v>104</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>39</v>
@@ -8199,7 +8185,7 @@
         <v>119</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M132" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8223,7 +8209,7 @@
         <v>105</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>39</v>
@@ -8247,7 +8233,7 @@
         <v>120</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M133" s="1" t="str">
         <f t="shared" si="31"/>
@@ -8271,7 +8257,7 @@
         <v>106</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>39</v>
@@ -8295,7 +8281,7 @@
         <v>121</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M134" s="1" t="str">
         <f t="shared" ref="M134:O149" si="34">_xlfn.LET(_xlpm.a,($E134+M$3*$G134)*(1+M$2),_xlpm.b,($F134+M$3*$H134)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
@@ -8319,7 +8305,7 @@
         <v>109</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>39</v>
@@ -8343,7 +8329,7 @@
         <v>122</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M135" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8367,7 +8353,7 @@
         <v>110</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>39</v>
@@ -8391,7 +8377,7 @@
         <v>123</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M136" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8415,7 +8401,7 @@
         <v>107</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>39</v>
@@ -8439,7 +8425,7 @@
         <v>124</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M137" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8463,7 +8449,7 @@
         <v>108</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>39</v>
@@ -8487,7 +8473,7 @@
         <v>125</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M138" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8511,7 +8497,7 @@
         <v>111</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>39</v>
@@ -8535,7 +8521,7 @@
         <v>126</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>399</v>
+        <v>559</v>
       </c>
       <c r="M139" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8559,7 +8545,7 @@
         <v>118</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>39</v>
@@ -8580,7 +8566,7 @@
         <v>1.25</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M140" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8604,7 +8590,7 @@
         <v>277</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>39</v>
@@ -8625,7 +8611,7 @@
         <v>1.25</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M141" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8649,7 +8635,7 @@
         <v>279</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>39</v>
@@ -8670,7 +8656,7 @@
         <v>0.25</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>399</v>
+        <v>558</v>
       </c>
       <c r="M142" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8694,7 +8680,7 @@
         <v>283</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>39</v>
@@ -8736,7 +8722,7 @@
         <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>39</v>
@@ -8781,7 +8767,7 @@
         <v>302</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>39</v>
@@ -8800,9 +8786,6 @@
       </c>
       <c r="H145" s="1">
         <v>1.25</v>
-      </c>
-      <c r="L145" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M145" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8826,7 +8809,7 @@
         <v>303</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>39</v>
@@ -8845,9 +8828,6 @@
       </c>
       <c r="H146" s="1">
         <v>2.5</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M146" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8871,7 +8851,7 @@
         <v>304</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>39</v>
@@ -8890,9 +8870,6 @@
       </c>
       <c r="H147" s="1">
         <v>2.5</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M147" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8916,7 +8893,7 @@
         <v>305</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>39</v>
@@ -8935,9 +8912,6 @@
       </c>
       <c r="H148" s="1">
         <v>2.5</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M148" s="1" t="str">
         <f t="shared" si="34"/>
@@ -8961,7 +8935,7 @@
         <v>306</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>39</v>
@@ -8980,9 +8954,6 @@
       </c>
       <c r="H149" s="1">
         <v>2.5</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="M149" s="1" t="str">
         <f t="shared" si="34"/>
@@ -11272,58 +11243,58 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B32">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B45">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B51">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B131">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B144">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B149 B35">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B150:B185">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B203">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D32">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D45">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D52">
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:D131">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D143:D144">
-    <cfRule type="duplicateValues" dxfId="5" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145:D149 D35">
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D150:D185">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D203">
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E7D824-2B6D-4408-80CB-558EBE4F4094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B65FC-8C0D-40EF-A181-C398196193A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16090" yWindow="0" windowWidth="22400" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="566">
   <si>
     <t>id</t>
   </si>
@@ -1753,6 +1753,21 @@
   </si>
   <si>
     <t>necklace,armor,charm,ring</t>
+  </si>
+  <si>
+    <t>skillChance</t>
+  </si>
+  <si>
+    <t>number[]</t>
+  </si>
+  <si>
+    <t>触发概率</t>
+  </si>
+  <si>
+    <t>0.03,0.15</t>
+  </si>
+  <si>
+    <t>SkillId</t>
   </si>
 </sst>
 </file>
@@ -2272,11 +2287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B150" sqref="B150"/>
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2287,13 +2302,13 @@
     <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="1" customWidth="1"/>
-    <col min="13" max="15" width="13.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="11" max="12" width="10.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31" style="1" customWidth="1"/>
+    <col min="14" max="16" width="13.26953125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2328,10 +2343,13 @@
         <v>127</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2363,39 +2381,42 @@
         <v>141</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>565</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
       <c r="N3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -2430,10 +2451,13 @@
         <v>128</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2458,27 +2482,27 @@
       <c r="H5" s="1">
         <v>0.4</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="M5" s="1" t="str">
-        <f t="shared" ref="M5:M13" si="0">_xlfn.LET(_xlpm.a,($E5+M$3*$G5)*(1+M$2),_xlpm.b,($F5+M$3*$H5)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N5" s="1" t="str">
+        <f t="shared" ref="N5:N13" si="0">_xlfn.LET(_xlpm.a,($E5+N$3*$G5)*(1+N$2),_xlpm.b,($F5+N$3*$H5)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>0.5-1</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" ref="N5:O20" si="1">_xlfn.LET(_xlpm.a,($E5+N$3*$G5)*(1+N$2),_xlpm.b,($F5+N$3*$H5)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="O5" s="1" t="str">
+        <f t="shared" ref="O5:P20" si="1">_xlfn.LET(_xlpm.a,($E5+O$3*$G5)*(1+O$2),_xlpm.b,($F5+O$3*$H5)*(1+O$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>0.98-2.6</v>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5:P6" si="2">_xlfn.LET(_xlpm.a,($E5+O$3*$G5)*(1+O$2),_xlpm.b,($F5+O$3*$H5)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q6" si="2">_xlfn.LET(_xlpm.a,($E5+P$3*$G5)*(1+P$2),_xlpm.b,($F5+P$3*$H5)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>10.74</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,27 +2527,27 @@
       <c r="H6" s="1">
         <v>0.4</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="N6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0.5-1</v>
       </c>
-      <c r="N6" s="1" t="str">
+      <c r="O6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0.98-2.6</v>
       </c>
-      <c r="O6" s="1" t="str">
+      <c r="P6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>10.74</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2551,27 +2575,27 @@
       <c r="I7" s="1">
         <v>0.15</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M7" s="1" t="str">
+      <c r="N7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3-7</v>
       </c>
-      <c r="N7" s="1" t="str">
+      <c r="O7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>31-91</v>
       </c>
-      <c r="O7" s="1" t="str">
+      <c r="P7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>186-546</v>
       </c>
-      <c r="P7" s="1">
-        <f>_xlfn.LET(_xlpm.a,($E7+O$3*$G7)*(1+O$2),_xlpm.b,($F7+O$3*$H7)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q7" s="1">
+        <f>_xlfn.LET(_xlpm.a,($E7+P$3*$G7)*(1+P$2),_xlpm.b,($F7+P$3*$H7)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -2602,27 +2626,27 @@
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M8" s="1" t="str">
+      <c r="N8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3-7</v>
       </c>
-      <c r="N8" s="1" t="str">
+      <c r="O8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>31-91</v>
       </c>
-      <c r="O8" s="1" t="str">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>186-546</v>
       </c>
-      <c r="P8" s="1">
-        <f>_xlfn.LET(_xlpm.a,($E8+O$3*$G8)*(1+O$2),_xlpm.b,($F8+O$3*$H8)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q8" s="1">
+        <f>_xlfn.LET(_xlpm.a,($E8+P$3*$G8)*(1+P$2),_xlpm.b,($F8+P$3*$H8)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2650,27 +2674,27 @@
       <c r="I9" s="1">
         <v>0.15</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M9" s="1" t="str">
+      <c r="N9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4-6</v>
       </c>
-      <c r="N9" s="1" t="str">
+      <c r="O9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>52-70</v>
       </c>
-      <c r="O9" s="1" t="str">
+      <c r="P9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>312-420</v>
       </c>
-      <c r="P9" s="1">
-        <f>_xlfn.LET(_xlpm.a,($E9+O$3*$G9)*(1+O$2),_xlpm.b,($F9+O$3*$H9)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q9" s="1">
+        <f>_xlfn.LET(_xlpm.a,($E9+P$3*$G9)*(1+P$2),_xlpm.b,($F9+P$3*$H9)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2698,27 +2722,27 @@
       <c r="I10" s="1">
         <v>0.15</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M10" s="1" t="str">
+      <c r="N10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-9</v>
       </c>
-      <c r="N10" s="1" t="str">
+      <c r="O10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>13-109</v>
       </c>
-      <c r="O10" s="1" t="str">
+      <c r="P10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>78-654</v>
       </c>
-      <c r="P10" s="1">
-        <f>_xlfn.LET(_xlpm.a,($E10+O$3*$G10)*(1+O$2),_xlpm.b,($F10+O$3*$H10)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q10" s="1">
+        <f>_xlfn.LET(_xlpm.a,($E10+P$3*$G10)*(1+P$2),_xlpm.b,($F10+P$3*$H10)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2746,27 +2770,27 @@
       <c r="I11" s="1">
         <v>0.15</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M11" s="1" t="str">
+      <c r="N11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5-5</v>
       </c>
-      <c r="N11" s="1" t="str">
+      <c r="O11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>61-61</v>
       </c>
-      <c r="O11" s="1" t="str">
+      <c r="P11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>366-366</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11:P85" si="3">_xlfn.LET(_xlpm.a,($E11+O$3*$G11)*(1+O$2),_xlpm.b,($F11+O$3*$H11)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q85" si="3">_xlfn.LET(_xlpm.a,($E11+P$3*$G11)*(1+P$2),_xlpm.b,($F11+P$3*$H11)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2794,27 +2818,27 @@
       <c r="I12" s="1">
         <v>0.15</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="M12" s="1" t="str">
+      <c r="N12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0-10</v>
       </c>
-      <c r="N12" s="1" t="str">
+      <c r="O12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0-122</v>
       </c>
-      <c r="O12" s="1" t="str">
+      <c r="P12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0-732</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2839,27 +2863,27 @@
       <c r="H13" s="1">
         <v>75</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M13" s="1" t="str">
+      <c r="N13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10-50</v>
       </c>
-      <c r="N13" s="1" t="str">
+      <c r="O13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O13" s="1" t="str">
+      <c r="P13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2884,27 +2908,27 @@
       <c r="H14" s="1">
         <v>75</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M14" s="1" t="str">
-        <f t="shared" ref="M14:O35" si="4">_xlfn.LET(_xlpm.a,($E14+M$3*$G14)*(1+M$2),_xlpm.b,($F14+M$3*$H14)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N14" s="1" t="str">
+        <f t="shared" ref="N14:P35" si="4">_xlfn.LET(_xlpm.a,($E14+N$3*$G14)*(1+N$2),_xlpm.b,($F14+N$3*$H14)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>10-50</v>
       </c>
-      <c r="N14" s="1" t="str">
+      <c r="O14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O14" s="1" t="str">
+      <c r="P14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2929,27 +2953,27 @@
       <c r="H15" s="1">
         <v>75</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M15" s="1" t="str">
+      <c r="N15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N15" s="1" t="str">
+      <c r="O15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O15" s="1" t="str">
+      <c r="P15" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2974,27 +2998,27 @@
       <c r="H16" s="1">
         <v>75</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="N16" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N16" s="1" t="str">
+      <c r="O16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O16" s="1" t="str">
+      <c r="P16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -3019,27 +3043,27 @@
       <c r="H17" s="1">
         <v>75</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M17" s="1" t="str">
+      <c r="N17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N17" s="1" t="str">
+      <c r="O17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O17" s="1" t="str">
+      <c r="P17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -3064,27 +3088,27 @@
       <c r="H18" s="1">
         <v>75</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M18" s="1" t="str">
+      <c r="N18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N18" s="1" t="str">
+      <c r="O18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O18" s="1" t="str">
+      <c r="P18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3109,27 +3133,27 @@
       <c r="H19" s="1">
         <v>75</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M19" s="1" t="str">
+      <c r="N19" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N19" s="1" t="str">
+      <c r="O19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O19" s="1" t="str">
+      <c r="P19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3154,27 +3178,27 @@
       <c r="H20" s="1">
         <v>75</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M20" s="1" t="str">
+      <c r="N20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N20" s="1" t="str">
+      <c r="O20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>70-350</v>
       </c>
-      <c r="O20" s="1" t="str">
+      <c r="P20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>420-2100</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3199,27 +3223,27 @@
       <c r="H21" s="1">
         <v>75</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M21" s="1" t="str">
+      <c r="N21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N21" s="1" t="str">
+      <c r="O21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>70-350</v>
       </c>
-      <c r="O21" s="1" t="str">
+      <c r="P21" s="1" t="str">
         <f t="shared" si="4"/>
         <v>420-2100</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -3244,27 +3268,27 @@
       <c r="H22" s="1">
         <v>75</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M22" s="1" t="str">
+      <c r="N22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>10-50</v>
       </c>
-      <c r="N22" s="1" t="str">
+      <c r="O22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>70-350</v>
       </c>
-      <c r="O22" s="1" t="str">
+      <c r="P22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>420-2100</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="3"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -3292,27 +3316,27 @@
       <c r="I23" s="1">
         <v>0.15</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M23" s="1" t="str">
+      <c r="N23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.7-2</v>
       </c>
-      <c r="N23" s="1" t="str">
+      <c r="O23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4.7-14</v>
       </c>
-      <c r="O23" s="1" t="str">
+      <c r="P23" s="1" t="str">
         <f t="shared" si="4"/>
         <v>28.2-84</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3340,27 +3364,27 @@
       <c r="I24" s="1">
         <v>0.15</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M24" s="1" t="str">
+      <c r="N24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.7-2</v>
       </c>
-      <c r="N24" s="1" t="str">
+      <c r="O24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4.7-14</v>
       </c>
-      <c r="O24" s="1" t="str">
+      <c r="P24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>28.2-84</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3388,27 +3412,27 @@
       <c r="I25" s="1">
         <v>0.15</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M25" s="1" t="str">
+      <c r="N25" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.7-2</v>
       </c>
-      <c r="N25" s="1" t="str">
+      <c r="O25" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4.7-14</v>
       </c>
-      <c r="O25" s="1" t="str">
+      <c r="P25" s="1" t="str">
         <f t="shared" si="4"/>
         <v>28.2-84</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3436,27 +3460,27 @@
       <c r="I26" s="1">
         <v>0.15</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M26" s="1" t="str">
+      <c r="N26" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.7-2</v>
       </c>
-      <c r="N26" s="1" t="str">
+      <c r="O26" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4.7-14</v>
       </c>
-      <c r="O26" s="1" t="str">
+      <c r="P26" s="1" t="str">
         <f t="shared" si="4"/>
         <v>28.2-84</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3484,27 +3508,27 @@
       <c r="I27" s="1">
         <v>0.15</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M27" s="1" t="str">
+      <c r="N27" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.7-2</v>
       </c>
-      <c r="N27" s="1" t="str">
+      <c r="O27" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4.7-14</v>
       </c>
-      <c r="O27" s="1" t="str">
+      <c r="P27" s="1" t="str">
         <f t="shared" si="4"/>
         <v>28.2-84</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>290</v>
       </c>
@@ -3533,27 +3557,27 @@
         <f>H7*0.15</f>
         <v>3.15</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M28" s="1" t="str">
+      <c r="N28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.3-1.05</v>
       </c>
-      <c r="N28" s="1" t="str">
+      <c r="O28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>3.1-13.65</v>
       </c>
-      <c r="O28" s="1" t="str">
+      <c r="P28" s="1" t="str">
         <f t="shared" si="4"/>
         <v>18.6-81.9</v>
       </c>
-      <c r="P28" s="1">
-        <f t="shared" ref="P28" si="5">_xlfn.LET(_xlpm.a,($E28+O$3*$G28)*(1+O$2),_xlpm.b,($F28+O$3*$H28)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q28" s="1">
+        <f t="shared" ref="Q28" si="5">_xlfn.LET(_xlpm.a,($E28+P$3*$G28)*(1+P$2),_xlpm.b,($F28+P$3*$H28)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>50.25</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>291</v>
       </c>
@@ -3582,27 +3606,27 @@
         <f>H9*0.15</f>
         <v>2.4</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M29" s="1" t="str">
+      <c r="N29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.4-0.9</v>
       </c>
-      <c r="N29" s="1" t="str">
+      <c r="O29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>5.2-10.5</v>
       </c>
-      <c r="O29" s="1" t="str">
+      <c r="P29" s="1" t="str">
         <f t="shared" si="4"/>
         <v>31.2-63</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" ref="P29:P32" si="6">_xlfn.LET(_xlpm.a,($E29+O$3*$G29)*(1+O$2),_xlpm.b,($F29+O$3*$H29)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29:Q32" si="6">_xlfn.LET(_xlpm.a,($E29+P$3*$G29)*(1+P$2),_xlpm.b,($F29+P$3*$H29)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>47.1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>292</v>
       </c>
@@ -3631,27 +3655,27 @@
         <f t="shared" ref="H30:H32" si="10">H10*0.15</f>
         <v>3.75</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M30" s="1" t="str">
+      <c r="N30" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.1-1.35</v>
       </c>
-      <c r="N30" s="1" t="str">
+      <c r="O30" s="1" t="str">
         <f t="shared" si="4"/>
         <v>1.3-16.35</v>
       </c>
-      <c r="O30" s="1" t="str">
+      <c r="P30" s="1" t="str">
         <f t="shared" si="4"/>
         <v>7.8-98.1</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <f t="shared" si="6"/>
         <v>52.95</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>293</v>
       </c>
@@ -3680,27 +3704,27 @@
         <f>H11*0.125</f>
         <v>1.75</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M31" s="1" t="str">
+      <c r="N31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0.625-0.625</v>
       </c>
-      <c r="N31" s="1" t="str">
+      <c r="O31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>7.625-7.625</v>
       </c>
-      <c r="O31" s="1" t="str">
+      <c r="P31" s="1" t="str">
         <f t="shared" si="4"/>
         <v>45.75-45.75</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <f t="shared" si="6"/>
         <v>45.75</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>294</v>
       </c>
@@ -3729,27 +3753,27 @@
         <f t="shared" si="10"/>
         <v>4.2</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M32" s="1" t="str">
+      <c r="N32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0-1.5</v>
       </c>
-      <c r="N32" s="1" t="str">
+      <c r="O32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0-18.3</v>
       </c>
-      <c r="O32" s="1" t="str">
+      <c r="P32" s="1" t="str">
         <f t="shared" si="4"/>
         <v>0-109.8</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <f t="shared" si="6"/>
         <v>54.900000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -3774,27 +3798,27 @@
       <c r="H33" s="1">
         <v>20</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M33" s="1" t="str">
+      <c r="N33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>3-5</v>
       </c>
-      <c r="N33" s="1" t="str">
+      <c r="O33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>27-85</v>
       </c>
-      <c r="O33" s="1" t="str">
+      <c r="P33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>162-510</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -3819,27 +3843,27 @@
       <c r="H34" s="1">
         <v>20</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M34" s="1" t="str">
+      <c r="N34" s="1" t="str">
         <f t="shared" si="4"/>
         <v>3-5</v>
       </c>
-      <c r="N34" s="1" t="str">
+      <c r="O34" s="1" t="str">
         <f t="shared" si="4"/>
         <v>27-85</v>
       </c>
-      <c r="O34" s="1" t="str">
+      <c r="P34" s="1" t="str">
         <f t="shared" si="4"/>
         <v>162-510</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>301</v>
       </c>
@@ -3864,27 +3888,27 @@
       <c r="H35" s="1">
         <v>22.5</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M35" s="1" t="str">
+      <c r="N35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>2-10</v>
       </c>
-      <c r="N35" s="1" t="str">
+      <c r="O35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>22-100</v>
       </c>
-      <c r="O35" s="1" t="str">
+      <c r="P35" s="1" t="str">
         <f t="shared" si="4"/>
         <v>132-600</v>
       </c>
-      <c r="P35" s="1">
-        <f t="shared" ref="P35" si="11">_xlfn.LET(_xlpm.a,($E35+O$3*$G35)*(1+O$2),_xlpm.b,($F35+O$3*$H35)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q35" s="1">
+        <f t="shared" ref="Q35" si="11">_xlfn.LET(_xlpm.a,($E35+P$3*$G35)*(1+P$2),_xlpm.b,($F35+P$3*$H35)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -3909,27 +3933,27 @@
       <c r="H36" s="1">
         <v>2.4</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M36" s="1" t="str">
-        <f>_xlfn.LET(_xlpm.a,($E36+M$3*$G36)*(1+M$2),_xlpm.b,($F36+M$3*$H36)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N36" s="1" t="str">
+        <f>_xlfn.LET(_xlpm.a,($E36+N$3*$G36)*(1+N$2),_xlpm.b,($F36+N$3*$H36)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>5-10</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" ref="N36:O69" si="12">_xlfn.LET(_xlpm.a,($E36+N$3*$G36)*(1+N$2),_xlpm.b,($F36+N$3*$H36)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="O36" s="1" t="str">
+        <f t="shared" ref="O36:P69" si="12">_xlfn.LET(_xlpm.a,($E36+O$3*$G36)*(1+O$2),_xlpm.b,($F36+O$3*$H36)*(1+O$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>9.8-19.6</v>
       </c>
-      <c r="O36" s="1" t="str">
+      <c r="P36" s="1" t="str">
         <f t="shared" si="12"/>
         <v>58.8-117.6</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="3"/>
         <v>88.2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -3954,27 +3978,27 @@
       <c r="H37" s="1">
         <v>5</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M37" s="1" t="str">
-        <f>_xlfn.LET(_xlpm.a,($E37+M$3*$G37)*(1+M$2),_xlpm.b,($F37+M$3*$H37)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N37" s="1" t="str">
+        <f>_xlfn.LET(_xlpm.a,($E37+N$3*$G37)*(1+N$2),_xlpm.b,($F37+N$3*$H37)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>10-20</v>
       </c>
-      <c r="N37" s="1" t="str">
+      <c r="O37" s="1" t="str">
         <f t="shared" si="12"/>
         <v>20-40</v>
       </c>
-      <c r="O37" s="1" t="str">
+      <c r="P37" s="1" t="str">
         <f t="shared" si="12"/>
         <v>120-240</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -3999,27 +4023,27 @@
       <c r="H38" s="1">
         <v>5</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M38" s="1" t="str">
-        <f t="shared" ref="M38:O75" si="13">_xlfn.LET(_xlpm.a,($E38+M$3*$G38)*(1+M$2),_xlpm.b,($F38+M$3*$H38)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N38" s="1" t="str">
+        <f t="shared" ref="N38:P75" si="13">_xlfn.LET(_xlpm.a,($E38+N$3*$G38)*(1+N$2),_xlpm.b,($F38+N$3*$H38)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>10-20</v>
       </c>
-      <c r="N38" s="1" t="str">
+      <c r="O38" s="1" t="str">
         <f t="shared" si="12"/>
         <v>20-40</v>
       </c>
-      <c r="O38" s="1" t="str">
+      <c r="P38" s="1" t="str">
         <f t="shared" si="12"/>
         <v>120-240</v>
       </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -4044,27 +4068,27 @@
       <c r="H39" s="1">
         <v>5</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M39" s="1" t="str">
+      <c r="N39" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10-20</v>
       </c>
-      <c r="N39" s="1" t="str">
+      <c r="O39" s="1" t="str">
         <f t="shared" si="12"/>
         <v>20-40</v>
       </c>
-      <c r="O39" s="1" t="str">
+      <c r="P39" s="1" t="str">
         <f t="shared" si="12"/>
         <v>120-240</v>
       </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -4089,27 +4113,27 @@
       <c r="H40" s="1">
         <v>5</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M40" s="1" t="str">
+      <c r="N40" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10-20</v>
       </c>
-      <c r="N40" s="1" t="str">
+      <c r="O40" s="1" t="str">
         <f t="shared" si="12"/>
         <v>20-40</v>
       </c>
-      <c r="O40" s="1" t="str">
+      <c r="P40" s="1" t="str">
         <f t="shared" si="12"/>
         <v>120-240</v>
       </c>
-      <c r="P40" s="1">
+      <c r="Q40" s="1">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>254</v>
       </c>
@@ -4134,24 +4158,24 @@
       <c r="H41" s="1">
         <v>0.5</v>
       </c>
-      <c r="M41" s="1" t="str">
+      <c r="N41" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-3</v>
       </c>
-      <c r="N41" s="1" t="str">
+      <c r="O41" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-5</v>
       </c>
-      <c r="O41" s="1" t="str">
+      <c r="P41" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-30</v>
       </c>
-      <c r="P41" s="1">
-        <f t="shared" ref="P41:P45" si="14">_xlfn.LET(_xlpm.a,($E41+O$3*$G41)*(1+O$2),_xlpm.b,($F41+O$3*$H41)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q41" s="1">
+        <f t="shared" ref="Q41:Q45" si="14">_xlfn.LET(_xlpm.a,($E41+P$3*$G41)*(1+P$2),_xlpm.b,($F41+P$3*$H41)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>256</v>
       </c>
@@ -4176,24 +4200,24 @@
       <c r="H42" s="1">
         <v>0.5</v>
       </c>
-      <c r="M42" s="1" t="str">
+      <c r="N42" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-3</v>
       </c>
-      <c r="N42" s="1" t="str">
+      <c r="O42" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-5</v>
       </c>
-      <c r="O42" s="1" t="str">
+      <c r="P42" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-30</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>257</v>
       </c>
@@ -4218,24 +4242,24 @@
       <c r="H43" s="1">
         <v>0.5</v>
       </c>
-      <c r="M43" s="1" t="str">
+      <c r="N43" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-3</v>
       </c>
-      <c r="N43" s="1" t="str">
+      <c r="O43" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-5</v>
       </c>
-      <c r="O43" s="1" t="str">
+      <c r="P43" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-30</v>
       </c>
-      <c r="P43" s="1">
+      <c r="Q43" s="1">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>258</v>
       </c>
@@ -4260,24 +4284,24 @@
       <c r="H44" s="1">
         <v>0.5</v>
       </c>
-      <c r="M44" s="1" t="str">
+      <c r="N44" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-3</v>
       </c>
-      <c r="N44" s="1" t="str">
+      <c r="O44" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-5</v>
       </c>
-      <c r="O44" s="1" t="str">
+      <c r="P44" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-30</v>
       </c>
-      <c r="P44" s="1">
+      <c r="Q44" s="1">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>259</v>
       </c>
@@ -4302,24 +4326,24 @@
       <c r="H45" s="1">
         <v>0.5</v>
       </c>
-      <c r="M45" s="1" t="str">
+      <c r="N45" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-3</v>
       </c>
-      <c r="N45" s="1" t="str">
+      <c r="O45" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-5</v>
       </c>
-      <c r="O45" s="1" t="str">
+      <c r="P45" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-30</v>
       </c>
-      <c r="P45" s="1">
+      <c r="Q45" s="1">
         <f t="shared" si="14"/>
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>270</v>
       </c>
@@ -4344,27 +4368,27 @@
       <c r="H46" s="1">
         <v>2</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M46" s="1" t="str">
+      <c r="N46" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N46" s="1" t="str">
+      <c r="O46" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O46" s="1" t="str">
+      <c r="P46" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P46" s="1">
-        <f t="shared" ref="P46:P52" si="15">_xlfn.LET(_xlpm.a,($E46+O$3*$G46)*(1+O$2),_xlpm.b,($F46+O$3*$H46)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q46" s="1">
+        <f t="shared" ref="Q46:Q52" si="15">_xlfn.LET(_xlpm.a,($E46+P$3*$G46)*(1+P$2),_xlpm.b,($F46+P$3*$H46)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>271</v>
       </c>
@@ -4389,27 +4413,27 @@
       <c r="H47" s="1">
         <v>2</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M47" s="1" t="str">
+      <c r="N47" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N47" s="1" t="str">
+      <c r="O47" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O47" s="1" t="str">
+      <c r="P47" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>272</v>
       </c>
@@ -4434,27 +4458,27 @@
       <c r="H48" s="1">
         <v>2</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M48" s="1" t="str">
+      <c r="N48" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N48" s="1" t="str">
+      <c r="O48" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O48" s="1" t="str">
+      <c r="P48" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
         <v>273</v>
       </c>
@@ -4479,27 +4503,27 @@
       <c r="H49" s="1">
         <v>2</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M49" s="1" t="str">
+      <c r="N49" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N49" s="1" t="str">
+      <c r="O49" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O49" s="1" t="str">
+      <c r="P49" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
         <v>274</v>
       </c>
@@ -4524,27 +4548,27 @@
       <c r="H50" s="1">
         <v>2</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M50" s="1" t="str">
+      <c r="N50" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N50" s="1" t="str">
+      <c r="O50" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O50" s="1" t="str">
+      <c r="P50" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
         <v>275</v>
       </c>
@@ -4569,27 +4593,27 @@
       <c r="H51" s="1">
         <v>2</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M51" s="1" t="str">
+      <c r="N51" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-10</v>
       </c>
-      <c r="N51" s="1" t="str">
+      <c r="O51" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-18</v>
       </c>
-      <c r="O51" s="1" t="str">
+      <c r="P51" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-108</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
         <v>276</v>
       </c>
@@ -4614,27 +4638,27 @@
       <c r="H52" s="1">
         <v>4</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M52" s="1" t="str">
+      <c r="N52" s="1" t="str">
         <f t="shared" si="13"/>
         <v>5-15</v>
       </c>
-      <c r="N52" s="1" t="str">
+      <c r="O52" s="1" t="str">
         <f t="shared" si="12"/>
         <v>7-31</v>
       </c>
-      <c r="O52" s="1" t="str">
+      <c r="P52" s="1" t="str">
         <f t="shared" si="12"/>
         <v>42-186</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="15"/>
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
         <v>42</v>
       </c>
@@ -4659,24 +4683,24 @@
       <c r="H53" s="1">
         <v>0.5</v>
       </c>
-      <c r="M53" s="1" t="str">
+      <c r="N53" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N53" s="1" t="str">
+      <c r="O53" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O53" s="1" t="str">
+      <c r="P53" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
@@ -4701,24 +4725,24 @@
       <c r="H54" s="1">
         <v>0.5</v>
       </c>
-      <c r="M54" s="1" t="str">
+      <c r="N54" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N54" s="1" t="str">
+      <c r="O54" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O54" s="1" t="str">
+      <c r="P54" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
         <v>450</v>
       </c>
@@ -4743,27 +4767,27 @@
       <c r="H55" s="1">
         <v>0.5</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M55" s="1" t="str">
+      <c r="N55" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N55" s="1" t="str">
+      <c r="O55" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O55" s="1" t="str">
+      <c r="P55" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P55" s="1">
-        <f t="shared" ref="P55:P56" si="16">_xlfn.LET(_xlpm.a,($E55+O$3*$G55)*(1+O$2),_xlpm.b,($F55+O$3*$H55)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q55" s="1">
+        <f t="shared" ref="Q55:Q56" si="16">_xlfn.LET(_xlpm.a,($E55+P$3*$G55)*(1+P$2),_xlpm.b,($F55+P$3*$H55)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
         <v>451</v>
       </c>
@@ -4788,27 +4812,27 @@
       <c r="H56" s="1">
         <v>0.5</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M56" s="1" t="str">
+      <c r="N56" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N56" s="1" t="str">
+      <c r="O56" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O56" s="1" t="str">
+      <c r="P56" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
@@ -4833,27 +4857,27 @@
       <c r="H57" s="1">
         <v>0.5</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M57" s="1" t="str">
+      <c r="N57" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N57" s="1" t="str">
+      <c r="O57" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O57" s="1" t="str">
+      <c r="P57" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
@@ -4878,24 +4902,24 @@
       <c r="H58" s="1">
         <v>0.5</v>
       </c>
-      <c r="M58" s="1" t="str">
+      <c r="N58" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N58" s="1" t="str">
+      <c r="O58" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O58" s="1" t="str">
+      <c r="P58" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -4920,24 +4944,24 @@
       <c r="H59" s="1">
         <v>0.5</v>
       </c>
-      <c r="M59" s="1" t="str">
+      <c r="N59" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N59" s="1" t="str">
+      <c r="O59" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O59" s="1" t="str">
+      <c r="P59" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P59" s="1">
+      <c r="Q59" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
         <v>452</v>
       </c>
@@ -4962,27 +4986,27 @@
       <c r="H60" s="1">
         <v>0.5</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M60" s="1" t="str">
+      <c r="N60" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N60" s="1" t="str">
+      <c r="O60" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O60" s="1" t="str">
+      <c r="P60" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P60" s="1">
-        <f t="shared" ref="P60:P61" si="17">_xlfn.LET(_xlpm.a,($E60+O$3*$G60)*(1+O$2),_xlpm.b,($F60+O$3*$H60)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q60" s="1">
+        <f t="shared" ref="Q60:Q61" si="17">_xlfn.LET(_xlpm.a,($E60+P$3*$G60)*(1+P$2),_xlpm.b,($F60+P$3*$H60)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
         <v>453</v>
       </c>
@@ -5007,27 +5031,27 @@
       <c r="H61" s="1">
         <v>0.5</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M61" s="1" t="str">
+      <c r="N61" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N61" s="1" t="str">
+      <c r="O61" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O61" s="1" t="str">
+      <c r="P61" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
@@ -5052,27 +5076,27 @@
       <c r="H62" s="1">
         <v>0.5</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M62" s="1" t="str">
+      <c r="N62" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N62" s="1" t="str">
+      <c r="O62" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O62" s="1" t="str">
+      <c r="P62" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P62" s="1">
+      <c r="Q62" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -5097,24 +5121,24 @@
       <c r="H63" s="1">
         <v>0.5</v>
       </c>
-      <c r="M63" s="1" t="str">
+      <c r="N63" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N63" s="1" t="str">
+      <c r="O63" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O63" s="1" t="str">
+      <c r="P63" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
@@ -5139,24 +5163,24 @@
       <c r="H64" s="1">
         <v>0.5</v>
       </c>
-      <c r="M64" s="1" t="str">
+      <c r="N64" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N64" s="1" t="str">
+      <c r="O64" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O64" s="1" t="str">
+      <c r="P64" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
         <v>454</v>
       </c>
@@ -5181,27 +5205,27 @@
       <c r="H65" s="1">
         <v>0.5</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M65" s="1" t="str">
+      <c r="N65" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N65" s="1" t="str">
+      <c r="O65" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O65" s="1" t="str">
+      <c r="P65" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P65" s="1">
-        <f t="shared" ref="P65:P66" si="18">_xlfn.LET(_xlpm.a,($E65+O$3*$G65)*(1+O$2),_xlpm.b,($F65+O$3*$H65)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q65" s="1">
+        <f t="shared" ref="Q65:Q66" si="18">_xlfn.LET(_xlpm.a,($E65+P$3*$G65)*(1+P$2),_xlpm.b,($F65+P$3*$H65)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
         <v>455</v>
       </c>
@@ -5226,27 +5250,27 @@
       <c r="H66" s="1">
         <v>0.5</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="M66" s="1" t="str">
+      <c r="N66" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N66" s="1" t="str">
+      <c r="O66" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O66" s="1" t="str">
+      <c r="P66" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P66" s="1">
+      <c r="Q66" s="1">
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
@@ -5271,27 +5295,27 @@
       <c r="H67" s="1">
         <v>0.5</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M67" s="1" t="str">
+      <c r="N67" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N67" s="1" t="str">
+      <c r="O67" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O67" s="1" t="str">
+      <c r="P67" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
         <v>51</v>
       </c>
@@ -5316,27 +5340,27 @@
       <c r="H68" s="1">
         <v>0.25</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M68" s="1" t="str">
+      <c r="N68" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N68" s="1" t="str">
+      <c r="O68" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-2</v>
       </c>
-      <c r="O68" s="1" t="str">
+      <c r="P68" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-12</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
@@ -5361,27 +5385,27 @@
       <c r="H69" s="1">
         <v>0.5</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M69" s="1" t="str">
+      <c r="N69" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
       </c>
-      <c r="N69" s="1" t="str">
+      <c r="O69" s="1" t="str">
         <f t="shared" si="12"/>
         <v>1-3</v>
       </c>
-      <c r="O69" s="1" t="str">
+      <c r="P69" s="1" t="str">
         <f t="shared" si="12"/>
         <v>6-18</v>
       </c>
-      <c r="P69" s="1">
+      <c r="Q69" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
         <v>53</v>
       </c>
@@ -5406,27 +5430,27 @@
       <c r="H70" s="1">
         <v>0.5</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="M70" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
       </c>
       <c r="N70" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O70" s="1" t="str">
         <f t="shared" si="13"/>
+        <v>1-3</v>
+      </c>
+      <c r="P70" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>6-18</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q70" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -5451,27 +5475,27 @@
       <c r="H71" s="1">
         <v>7.5</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M71" s="1" t="str">
+      <c r="N71" s="1" t="str">
         <f t="shared" si="13"/>
         <v>3-10</v>
       </c>
-      <c r="N71" s="1" t="str">
+      <c r="O71" s="1" t="str">
         <f t="shared" si="13"/>
         <v>7-40</v>
       </c>
-      <c r="O71" s="1" t="str">
+      <c r="P71" s="1" t="str">
         <f t="shared" si="13"/>
         <v>42-240</v>
       </c>
-      <c r="P71" s="1">
+      <c r="Q71" s="1">
         <f t="shared" si="3"/>
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
         <v>38</v>
       </c>
@@ -5496,27 +5520,27 @@
       <c r="H72" s="1">
         <v>20</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="M72" s="1" t="str">
+      <c r="N72" s="1" t="str">
         <f t="shared" si="13"/>
         <v>10-30</v>
       </c>
-      <c r="N72" s="1" t="str">
+      <c r="O72" s="1" t="str">
         <f t="shared" si="13"/>
         <v>30-110</v>
       </c>
-      <c r="O72" s="1" t="str">
+      <c r="P72" s="1" t="str">
         <f t="shared" si="13"/>
         <v>180-660</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q72" s="1">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
         <v>400</v>
       </c>
@@ -5541,12 +5565,8 @@
       <c r="H73" s="1">
         <v>0</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="M73" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
       </c>
       <c r="N73" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5554,14 +5574,18 @@
       </c>
       <c r="O73" s="1" t="str">
         <f t="shared" si="13"/>
+        <v>1-1</v>
+      </c>
+      <c r="P73" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>6-6</v>
       </c>
-      <c r="P73" s="1">
-        <f t="shared" ref="P73" si="19">_xlfn.LET(_xlpm.a,($E73+O$3*$G73)*(1+O$2),_xlpm.b,($F73+O$3*$H73)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q73" s="1">
+        <f t="shared" ref="Q73" si="19">_xlfn.LET(_xlpm.a,($E73+P$3*$G73)*(1+P$2),_xlpm.b,($F73+P$3*$H73)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
         <v>198</v>
       </c>
@@ -5586,24 +5610,24 @@
       <c r="H74" s="1">
         <v>0.25</v>
       </c>
-      <c r="M74" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
       <c r="N74" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
       <c r="O74" s="1" t="str">
         <f t="shared" si="13"/>
+        <v>1-2</v>
+      </c>
+      <c r="P74" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>6-12</v>
       </c>
-      <c r="P74" s="1">
+      <c r="Q74" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
         <v>199</v>
       </c>
@@ -5628,24 +5652,24 @@
       <c r="H75" s="1">
         <v>0.5</v>
       </c>
-      <c r="M75" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>1-1</v>
-      </c>
       <c r="N75" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O75" s="1" t="str">
         <f t="shared" si="13"/>
+        <v>1-3</v>
+      </c>
+      <c r="P75" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>6-18</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
         <v>200</v>
       </c>
@@ -5670,24 +5694,24 @@
       <c r="H76" s="1">
         <v>0.75</v>
       </c>
-      <c r="M76" s="1" t="str">
-        <f t="shared" ref="M76:O91" si="20">_xlfn.LET(_xlpm.a,($E76+M$3*$G76)*(1+M$2),_xlpm.b,($F76+M$3*$H76)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N76" s="1" t="str">
+        <f t="shared" ref="N76:P91" si="20">_xlfn.LET(_xlpm.a,($E76+N$3*$G76)*(1+N$2),_xlpm.b,($F76+N$3*$H76)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="O76" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-4</v>
       </c>
-      <c r="O76" s="1" t="str">
+      <c r="P76" s="1" t="str">
         <f t="shared" si="20"/>
         <v>6-24</v>
       </c>
-      <c r="P76" s="1">
+      <c r="Q76" s="1">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
         <v>201</v>
       </c>
@@ -5712,24 +5736,24 @@
       <c r="H77" s="1">
         <v>1</v>
       </c>
-      <c r="M77" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
       <c r="N77" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>1-5</v>
+        <v>1-1</v>
       </c>
       <c r="O77" s="1" t="str">
         <f t="shared" si="20"/>
+        <v>1-5</v>
+      </c>
+      <c r="P77" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>6-30</v>
       </c>
-      <c r="P77" s="1">
+      <c r="Q77" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -5754,24 +5778,24 @@
       <c r="H78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
-      </c>
       <c r="N78" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-1</v>
       </c>
       <c r="O78" s="1" t="str">
         <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="P78" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>6-6</v>
       </c>
-      <c r="P78" s="1">
+      <c r="Q78" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -5796,27 +5820,27 @@
       <c r="H79" s="1">
         <v>5</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M79" s="1" t="str">
+      <c r="N79" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5-10</v>
       </c>
-      <c r="N79" s="1" t="str">
+      <c r="O79" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5-30</v>
       </c>
-      <c r="O79" s="1" t="str">
+      <c r="P79" s="1" t="str">
         <f t="shared" si="20"/>
         <v>30-180</v>
       </c>
-      <c r="P79" s="1">
+      <c r="Q79" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -5841,27 +5865,27 @@
       <c r="H80" s="1">
         <v>5</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M80" s="1" t="str">
+      <c r="N80" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5-10</v>
       </c>
-      <c r="N80" s="1" t="str">
+      <c r="O80" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5-30</v>
       </c>
-      <c r="O80" s="1" t="str">
+      <c r="P80" s="1" t="str">
         <f t="shared" si="20"/>
         <v>30-180</v>
       </c>
-      <c r="P80" s="1">
+      <c r="Q80" s="1">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -5886,27 +5910,27 @@
       <c r="H81" s="1">
         <v>6</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M81" s="1" t="str">
+      <c r="N81" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-5</v>
       </c>
-      <c r="N81" s="1" t="str">
+      <c r="O81" s="1" t="str">
         <f t="shared" si="20"/>
         <v>9-29</v>
       </c>
-      <c r="O81" s="1" t="str">
+      <c r="P81" s="1" t="str">
         <f t="shared" si="20"/>
         <v>54-174</v>
       </c>
-      <c r="P81" s="1">
+      <c r="Q81" s="1">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -5931,27 +5955,27 @@
       <c r="H82" s="1">
         <v>10</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M82" s="1" t="str">
+      <c r="N82" s="1" t="str">
         <f t="shared" si="20"/>
         <v>2-7</v>
       </c>
-      <c r="N82" s="1" t="str">
+      <c r="O82" s="1" t="str">
         <f t="shared" si="20"/>
         <v>14-47</v>
       </c>
-      <c r="O82" s="1" t="str">
+      <c r="P82" s="1" t="str">
         <f t="shared" si="20"/>
         <v>84-282</v>
       </c>
-      <c r="P82" s="1">
+      <c r="Q82" s="1">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -5976,12 +6000,8 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M83" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>1-1</v>
       </c>
       <c r="N83" s="1" t="str">
         <f t="shared" si="20"/>
@@ -5989,14 +6009,18 @@
       </c>
       <c r="O83" s="1" t="str">
         <f t="shared" si="20"/>
+        <v>1-1</v>
+      </c>
+      <c r="P83" s="1" t="str">
+        <f t="shared" si="20"/>
         <v>6-6</v>
       </c>
-      <c r="P83" s="1">
+      <c r="Q83" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -6021,27 +6045,27 @@
       <c r="H84" s="1">
         <v>0.4</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M84" s="1" t="str">
+      <c r="N84" s="1" t="str">
         <f t="shared" si="20"/>
         <v>0.5-1</v>
       </c>
-      <c r="N84" s="1" t="str">
+      <c r="O84" s="1" t="str">
         <f t="shared" si="20"/>
         <v>0.98-2.6</v>
       </c>
-      <c r="O84" s="1" t="str">
+      <c r="P84" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P84" s="1">
+      <c r="Q84" s="1">
         <f t="shared" si="3"/>
         <v>10.74</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -6066,27 +6090,27 @@
       <c r="H85" s="1">
         <v>0.4</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="M85" s="1" t="str">
+      <c r="N85" s="1" t="str">
         <f t="shared" si="20"/>
         <v>0.5-1</v>
       </c>
-      <c r="N85" s="1" t="str">
+      <c r="O85" s="1" t="str">
         <f t="shared" si="20"/>
         <v>0.98-2.6</v>
       </c>
-      <c r="O85" s="1" t="str">
+      <c r="P85" s="1" t="str">
         <f t="shared" si="20"/>
         <v>5.88-15.6</v>
       </c>
-      <c r="P85" s="1">
+      <c r="Q85" s="1">
         <f t="shared" si="3"/>
         <v>10.74</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -6111,27 +6135,27 @@
       <c r="H86" s="1">
         <v>1.5</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M86" s="1" t="str">
+      <c r="N86" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-2</v>
       </c>
-      <c r="N86" s="1" t="str">
+      <c r="O86" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1.4-8</v>
       </c>
-      <c r="O86" s="1" t="str">
+      <c r="P86" s="1" t="str">
         <f t="shared" si="20"/>
         <v>8.4-48</v>
       </c>
-      <c r="P86" s="1">
-        <f t="shared" ref="P86" si="21">_xlfn.LET(_xlpm.a,($E86+O$3*$G86)*(1+O$2),_xlpm.b,($F86+O$3*$H86)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q86" s="1">
+        <f t="shared" ref="Q86" si="21">_xlfn.LET(_xlpm.a,($E86+P$3*$G86)*(1+P$2),_xlpm.b,($F86+P$3*$H86)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>28.2</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -6156,27 +6180,27 @@
       <c r="H87" s="1">
         <v>50</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M87" s="1" t="str">
+      <c r="N87" s="1" t="str">
         <f t="shared" si="20"/>
         <v>20-40</v>
       </c>
-      <c r="N87" s="1" t="str">
+      <c r="O87" s="1" t="str">
         <f t="shared" si="20"/>
         <v>40-240</v>
       </c>
-      <c r="O87" s="1" t="str">
+      <c r="P87" s="1" t="str">
         <f t="shared" si="20"/>
         <v>240-1440</v>
       </c>
-      <c r="P87" s="1">
-        <f t="shared" ref="P87:P88" si="22">_xlfn.LET(_xlpm.a,($E87+O$3*$G87)*(1+O$2),_xlpm.b,($F87+O$3*$H87)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q87" s="1">
+        <f t="shared" ref="Q87:Q88" si="22">_xlfn.LET(_xlpm.a,($E87+P$3*$G87)*(1+P$2),_xlpm.b,($F87+P$3*$H87)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>840</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -6201,27 +6225,27 @@
       <c r="H88" s="1">
         <v>1.5</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M88" s="1" t="str">
+      <c r="N88" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-2</v>
       </c>
-      <c r="N88" s="1" t="str">
+      <c r="O88" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1.4-8</v>
       </c>
-      <c r="O88" s="1" t="str">
+      <c r="P88" s="1" t="str">
         <f t="shared" si="20"/>
         <v>8.4-48</v>
       </c>
-      <c r="P88" s="1">
+      <c r="Q88" s="1">
         <f t="shared" si="22"/>
         <v>28.2</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -6246,27 +6270,27 @@
       <c r="H89" s="1">
         <v>50</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M89" s="1" t="str">
+      <c r="N89" s="1" t="str">
         <f t="shared" si="20"/>
         <v>20-40</v>
       </c>
-      <c r="N89" s="1" t="str">
+      <c r="O89" s="1" t="str">
         <f t="shared" si="20"/>
         <v>40-240</v>
       </c>
-      <c r="O89" s="1" t="str">
+      <c r="P89" s="1" t="str">
         <f t="shared" si="20"/>
         <v>240-1440</v>
       </c>
-      <c r="P89" s="1">
-        <f t="shared" ref="P89" si="23">_xlfn.LET(_xlpm.a,($E89+O$3*$G89)*(1+O$2),_xlpm.b,($F89+O$3*$H89)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q89" s="1">
+        <f t="shared" ref="Q89" si="23">_xlfn.LET(_xlpm.a,($E89+P$3*$G89)*(1+P$2),_xlpm.b,($F89+P$3*$H89)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>840</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
         <v>239</v>
       </c>
@@ -6291,27 +6315,27 @@
       <c r="H90" s="1">
         <v>24</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M90" s="1" t="str">
+      <c r="N90" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-4</v>
       </c>
-      <c r="N90" s="1" t="str">
+      <c r="O90" s="1" t="str">
         <f t="shared" si="20"/>
         <v>9-100</v>
       </c>
-      <c r="O90" s="1" t="str">
+      <c r="P90" s="1" t="str">
         <f t="shared" si="20"/>
         <v>54-600</v>
       </c>
-      <c r="P90" s="1">
-        <f t="shared" ref="P90" si="24">_xlfn.LET(_xlpm.a,($E90+O$3*$G90)*(1+O$2),_xlpm.b,($F90+O$3*$H90)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q90" s="1">
+        <f t="shared" ref="Q90" si="24">_xlfn.LET(_xlpm.a,($E90+P$3*$G90)*(1+P$2),_xlpm.b,($F90+P$3*$H90)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
         <v>240</v>
       </c>
@@ -6336,27 +6360,27 @@
       <c r="H91" s="1">
         <v>24</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M91" s="1" t="str">
+      <c r="N91" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-4</v>
       </c>
-      <c r="N91" s="1" t="str">
+      <c r="O91" s="1" t="str">
         <f t="shared" si="20"/>
         <v>9-100</v>
       </c>
-      <c r="O91" s="1" t="str">
+      <c r="P91" s="1" t="str">
         <f t="shared" si="20"/>
         <v>54-600</v>
       </c>
-      <c r="P91" s="1">
-        <f t="shared" ref="P91:P93" si="25">_xlfn.LET(_xlpm.a,($E91+O$3*$G91)*(1+O$2),_xlpm.b,($F91+O$3*$H91)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q91" s="1">
+        <f t="shared" ref="Q91:Q93" si="25">_xlfn.LET(_xlpm.a,($E91+P$3*$G91)*(1+P$2),_xlpm.b,($F91+P$3*$H91)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
         <v>241</v>
       </c>
@@ -6381,27 +6405,27 @@
       <c r="H92" s="1">
         <v>24</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M92" s="1" t="str">
-        <f t="shared" ref="M92:O107" si="26">_xlfn.LET(_xlpm.a,($E92+M$3*$G92)*(1+M$2),_xlpm.b,($F92+M$3*$H92)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+      <c r="N92" s="1" t="str">
+        <f t="shared" ref="N92:P107" si="26">_xlfn.LET(_xlpm.a,($E92+N$3*$G92)*(1+N$2),_xlpm.b,($F92+N$3*$H92)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-4</v>
       </c>
-      <c r="N92" s="1" t="str">
+      <c r="O92" s="1" t="str">
         <f t="shared" si="26"/>
         <v>9-100</v>
       </c>
-      <c r="O92" s="1" t="str">
+      <c r="P92" s="1" t="str">
         <f t="shared" si="26"/>
         <v>54-600</v>
       </c>
-      <c r="P92" s="1">
+      <c r="Q92" s="1">
         <f t="shared" si="25"/>
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
         <v>242</v>
       </c>
@@ -6426,27 +6450,27 @@
       <c r="H93" s="1">
         <v>24</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="M93" s="1" t="str">
+      <c r="N93" s="1" t="str">
         <f t="shared" si="26"/>
         <v>1-4</v>
       </c>
-      <c r="N93" s="1" t="str">
+      <c r="O93" s="1" t="str">
         <f t="shared" si="26"/>
         <v>9-100</v>
       </c>
-      <c r="O93" s="1" t="str">
+      <c r="P93" s="1" t="str">
         <f t="shared" si="26"/>
         <v>54-600</v>
       </c>
-      <c r="P93" s="1">
+      <c r="Q93" s="1">
         <f t="shared" si="25"/>
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
         <v>102</v>
       </c>
@@ -6471,27 +6495,27 @@
       <c r="H94" s="1">
         <v>1</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M94" s="1" t="str">
+      <c r="N94" s="1" t="str">
         <f t="shared" si="26"/>
         <v>0.5-1</v>
       </c>
-      <c r="N94" s="1" t="str">
+      <c r="O94" s="1" t="str">
         <f t="shared" si="26"/>
         <v>2.5-5</v>
       </c>
-      <c r="O94" s="1" t="str">
+      <c r="P94" s="1" t="str">
         <f t="shared" si="26"/>
         <v>15-30</v>
       </c>
-      <c r="P94" s="1">
-        <f t="shared" ref="P94" si="27">_xlfn.LET(_xlpm.a,($E94+O$3*$G94)*(1+O$2),_xlpm.b,($F94+O$3*$H94)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q94" s="1">
+        <f t="shared" ref="Q94" si="27">_xlfn.LET(_xlpm.a,($E94+P$3*$G94)*(1+P$2),_xlpm.b,($F94+P$3*$H94)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
         <v>103</v>
       </c>
@@ -6516,27 +6540,27 @@
       <c r="H95" s="1">
         <v>1</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M95" s="1" t="str">
+      <c r="N95" s="1" t="str">
         <f t="shared" si="26"/>
         <v>0.5-1</v>
       </c>
-      <c r="N95" s="1" t="str">
+      <c r="O95" s="1" t="str">
         <f t="shared" si="26"/>
         <v>2.5-5</v>
       </c>
-      <c r="O95" s="1" t="str">
+      <c r="P95" s="1" t="str">
         <f t="shared" si="26"/>
         <v>15-30</v>
       </c>
-      <c r="P95" s="1">
-        <f t="shared" ref="P95" si="28">_xlfn.LET(_xlpm.a,($E95+O$3*$G95)*(1+O$2),_xlpm.b,($F95+O$3*$H95)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q95" s="1">
+        <f t="shared" ref="Q95" si="28">_xlfn.LET(_xlpm.a,($E95+P$3*$G95)*(1+P$2),_xlpm.b,($F95+P$3*$H95)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
         <v>54</v>
       </c>
@@ -6561,27 +6585,27 @@
       <c r="H96" s="1">
         <v>0.5</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M96" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N96" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O96" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P96" s="1">
-        <f t="shared" ref="P96" si="29">_xlfn.LET(_xlpm.a,($E96+O$3*$G96)*(1+O$2),_xlpm.b,($F96+O$3*$H96)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q96" s="1">
+        <f t="shared" ref="Q96" si="29">_xlfn.LET(_xlpm.a,($E96+P$3*$G96)*(1+P$2),_xlpm.b,($F96+P$3*$H96)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
         <v>55</v>
       </c>
@@ -6606,27 +6630,27 @@
       <c r="H97" s="1">
         <v>0.5</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M97" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N97" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O97" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P97" s="1">
-        <f t="shared" ref="P97:P131" si="30">_xlfn.LET(_xlpm.a,($E97+O$3*$G97)*(1+O$2),_xlpm.b,($F97+O$3*$H97)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q97" s="1">
+        <f t="shared" ref="Q97:Q131" si="30">_xlfn.LET(_xlpm.a,($E97+P$3*$G97)*(1+P$2),_xlpm.b,($F97+P$3*$H97)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
@@ -6651,27 +6675,27 @@
       <c r="H98" s="1">
         <v>0.5</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M98" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N98" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O98" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P98" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P98" s="1">
+      <c r="Q98" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
         <v>57</v>
       </c>
@@ -6696,27 +6720,27 @@
       <c r="H99" s="1">
         <v>0.5</v>
       </c>
-      <c r="L99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M99" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N99" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O99" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P99" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P99" s="1">
+      <c r="Q99" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
         <v>58</v>
       </c>
@@ -6741,27 +6765,27 @@
       <c r="H100" s="1">
         <v>0.5</v>
       </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M100" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N100" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O100" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P100" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P100" s="1">
+      <c r="Q100" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
         <v>59</v>
       </c>
@@ -6786,27 +6810,27 @@
       <c r="H101" s="1">
         <v>0.5</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M101" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N101" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O101" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P101" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P101" s="1">
+      <c r="Q101" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
         <v>60</v>
       </c>
@@ -6831,27 +6855,27 @@
       <c r="H102" s="1">
         <v>0.5</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M102" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N102" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O102" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P102" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P102" s="1">
+      <c r="Q102" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
         <v>61</v>
       </c>
@@ -6876,27 +6900,27 @@
       <c r="H103" s="1">
         <v>0.5</v>
       </c>
-      <c r="L103" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M103" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N103" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O103" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P103" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P103" s="1">
+      <c r="Q103" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
         <v>62</v>
       </c>
@@ -6921,27 +6945,27 @@
       <c r="H104" s="1">
         <v>0.5</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M104" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N104" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O104" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P104" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P104" s="1">
+      <c r="Q104" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
         <v>63</v>
       </c>
@@ -6966,27 +6990,27 @@
       <c r="H105" s="1">
         <v>0.5</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M105" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N105" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O105" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P105" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P105" s="1">
+      <c r="Q105" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
         <v>64</v>
       </c>
@@ -7011,27 +7035,27 @@
       <c r="H106" s="1">
         <v>0.5</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M106" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N106" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O106" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P106" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P106" s="1">
+      <c r="Q106" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
         <v>65</v>
       </c>
@@ -7056,27 +7080,27 @@
       <c r="H107" s="1">
         <v>0.5</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M107" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>1-1</v>
       </c>
       <c r="N107" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O107" s="1" t="str">
         <f t="shared" si="26"/>
+        <v>1-3</v>
+      </c>
+      <c r="P107" s="1" t="str">
+        <f t="shared" si="26"/>
         <v>6-18</v>
       </c>
-      <c r="P107" s="1">
+      <c r="Q107" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
         <v>66</v>
       </c>
@@ -7101,27 +7125,27 @@
       <c r="H108" s="1">
         <v>0.5</v>
       </c>
-      <c r="L108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M108" s="1" t="str">
-        <f t="shared" ref="M108:O133" si="31">_xlfn.LET(_xlpm.a,($E108+M$3*$G108)*(1+M$2),_xlpm.b,($F108+M$3*$H108)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N108" s="1" t="str">
+        <f t="shared" ref="N108:P133" si="31">_xlfn.LET(_xlpm.a,($E108+N$3*$G108)*(1+N$2),_xlpm.b,($F108+N$3*$H108)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="O108" s="1" t="str">
         <f t="shared" si="31"/>
         <v>1-3</v>
       </c>
-      <c r="O108" s="1" t="str">
+      <c r="P108" s="1" t="str">
         <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P108" s="1">
+      <c r="Q108" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
         <v>67</v>
       </c>
@@ -7146,27 +7170,27 @@
       <c r="H109" s="1">
         <v>0.5</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M109" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N109" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O109" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P109" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P109" s="1">
+      <c r="Q109" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
         <v>68</v>
       </c>
@@ -7191,27 +7215,27 @@
       <c r="H110" s="1">
         <v>0.5</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M110" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N110" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O110" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P110" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P110" s="1">
+      <c r="Q110" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
         <v>69</v>
       </c>
@@ -7236,27 +7260,27 @@
       <c r="H111" s="1">
         <v>0.5</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M111" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N111" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O111" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P111" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P111" s="1">
+      <c r="Q111" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
         <v>70</v>
       </c>
@@ -7281,27 +7305,27 @@
       <c r="H112" s="1">
         <v>0.5</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M112" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N112" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O112" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P112" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P112" s="1">
+      <c r="Q112" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
@@ -7326,27 +7350,27 @@
       <c r="H113" s="1">
         <v>0.5</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="M113" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M113" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N113" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O113" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P113" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P113" s="1">
+      <c r="Q113" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
         <v>72</v>
       </c>
@@ -7371,27 +7395,27 @@
       <c r="H114" s="1">
         <v>0.5</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M114" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N114" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O114" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P114" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P114" s="1">
+      <c r="Q114" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
         <v>73</v>
       </c>
@@ -7416,27 +7440,27 @@
       <c r="H115" s="1">
         <v>0.5</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="M115" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M115" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N115" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O115" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P115" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P115" s="1">
+      <c r="Q115" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
         <v>74</v>
       </c>
@@ -7461,27 +7485,27 @@
       <c r="H116" s="1">
         <v>0.5</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M116" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N116" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O116" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P116" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P116" s="1">
+      <c r="Q116" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
         <v>75</v>
       </c>
@@ -7506,27 +7530,27 @@
       <c r="H117" s="1">
         <v>0.5</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="M117" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M117" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N117" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O117" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P117" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P117" s="1">
+      <c r="Q117" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
         <v>76</v>
       </c>
@@ -7551,27 +7575,27 @@
       <c r="H118" s="1">
         <v>0.5</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="M118" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M118" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N118" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O118" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P118" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P118" s="1">
+      <c r="Q118" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
         <v>77</v>
       </c>
@@ -7596,27 +7620,27 @@
       <c r="H119" s="1">
         <v>0.5</v>
       </c>
-      <c r="L119" s="1" t="s">
+      <c r="M119" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M119" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N119" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O119" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P119" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P119" s="1">
+      <c r="Q119" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
@@ -7641,27 +7665,27 @@
       <c r="H120" s="1">
         <v>0.5</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="M120" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M120" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N120" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O120" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P120" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P120" s="1">
+      <c r="Q120" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
         <v>79</v>
       </c>
@@ -7686,27 +7710,27 @@
       <c r="H121" s="1">
         <v>0.5</v>
       </c>
-      <c r="L121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M121" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N121" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O121" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P121" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P121" s="1">
+      <c r="Q121" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
         <v>80</v>
       </c>
@@ -7731,27 +7755,27 @@
       <c r="H122" s="1">
         <v>0.5</v>
       </c>
-      <c r="L122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M122" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N122" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O122" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P122" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P122" s="1">
+      <c r="Q122" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
         <v>81</v>
       </c>
@@ -7776,27 +7800,27 @@
       <c r="H123" s="1">
         <v>0.5</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M123" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N123" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O123" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P123" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P123" s="1">
+      <c r="Q123" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
         <v>82</v>
       </c>
@@ -7821,27 +7845,27 @@
       <c r="H124" s="1">
         <v>0.5</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M124" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N124" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O124" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P124" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P124" s="1">
+      <c r="Q124" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
         <v>83</v>
       </c>
@@ -7866,27 +7890,27 @@
       <c r="H125" s="1">
         <v>0.5</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="M125" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M125" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N125" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O125" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P125" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P125" s="1">
+      <c r="Q125" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
         <v>84</v>
       </c>
@@ -7911,27 +7935,27 @@
       <c r="H126" s="1">
         <v>0.5</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="M126" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M126" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N126" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O126" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P126" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P126" s="1">
+      <c r="Q126" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
         <v>85</v>
       </c>
@@ -7956,27 +7980,27 @@
       <c r="H127" s="1">
         <v>0.5</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M127" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N127" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O127" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P127" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P127" s="1">
+      <c r="Q127" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
         <v>86</v>
       </c>
@@ -8001,27 +8025,27 @@
       <c r="H128" s="1">
         <v>0.5</v>
       </c>
-      <c r="L128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M128" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N128" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O128" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P128" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P128" s="1">
+      <c r="Q128" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
@@ -8046,27 +8070,27 @@
       <c r="H129" s="1">
         <v>0.5</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="M129" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M129" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N129" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O129" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P129" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P129" s="1">
+      <c r="Q129" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
         <v>88</v>
       </c>
@@ -8091,27 +8115,27 @@
       <c r="H130" s="1">
         <v>0.5</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M130" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N130" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O130" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P130" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P130" s="1">
+      <c r="Q130" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
         <v>89</v>
       </c>
@@ -8136,27 +8160,27 @@
       <c r="H131" s="1">
         <v>0.5</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="M131" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M131" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N131" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O131" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-3</v>
+      </c>
+      <c r="P131" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-18</v>
       </c>
-      <c r="P131" s="1">
+      <c r="Q131" s="1">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
         <v>104</v>
       </c>
@@ -8185,26 +8209,29 @@
         <v>119</v>
       </c>
       <c r="L132" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M132" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M132" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N132" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O132" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-9</v>
+      </c>
+      <c r="P132" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-54</v>
       </c>
-      <c r="P132" s="1">
-        <f t="shared" ref="P132" si="32">_xlfn.LET(_xlpm.a,($E132+O$3*$G132)*(1+O$2),_xlpm.b,($F132+O$3*$H132)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q132" s="1">
+        <f t="shared" ref="Q132" si="32">_xlfn.LET(_xlpm.a,($E132+P$3*$G132)*(1+P$2),_xlpm.b,($F132+P$3*$H132)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
         <v>105</v>
       </c>
@@ -8233,26 +8260,29 @@
         <v>120</v>
       </c>
       <c r="L133" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M133" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M133" s="1" t="str">
-        <f t="shared" si="31"/>
-        <v>1-1</v>
       </c>
       <c r="N133" s="1" t="str">
         <f t="shared" si="31"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O133" s="1" t="str">
         <f t="shared" si="31"/>
+        <v>1-9</v>
+      </c>
+      <c r="P133" s="1" t="str">
+        <f t="shared" si="31"/>
         <v>6-54</v>
       </c>
-      <c r="P133" s="1">
-        <f t="shared" ref="P133:P139" si="33">_xlfn.LET(_xlpm.a,($E133+O$3*$G133)*(1+O$2),_xlpm.b,($F133+O$3*$H133)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q133" s="1">
+        <f t="shared" ref="Q133:Q139" si="33">_xlfn.LET(_xlpm.a,($E133+P$3*$G133)*(1+P$2),_xlpm.b,($F133+P$3*$H133)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:17">
       <c r="A134" s="1" t="s">
         <v>106</v>
       </c>
@@ -8281,26 +8311,29 @@
         <v>121</v>
       </c>
       <c r="L134" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M134" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M134" s="1" t="str">
-        <f t="shared" ref="M134:O149" si="34">_xlfn.LET(_xlpm.a,($E134+M$3*$G134)*(1+M$2),_xlpm.b,($F134+M$3*$H134)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N134" s="1" t="str">
+        <f t="shared" ref="N134:P149" si="34">_xlfn.LET(_xlpm.a,($E134+N$3*$G134)*(1+N$2),_xlpm.b,($F134+N$3*$H134)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="O134" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-9</v>
       </c>
-      <c r="O134" s="1" t="str">
+      <c r="P134" s="1" t="str">
         <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P134" s="1">
+      <c r="Q134" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:17">
       <c r="A135" s="1" t="s">
         <v>109</v>
       </c>
@@ -8329,26 +8362,29 @@
         <v>122</v>
       </c>
       <c r="L135" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M135" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M135" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N135" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O135" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-9</v>
+      </c>
+      <c r="P135" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P135" s="1">
+      <c r="Q135" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:17">
       <c r="A136" s="1" t="s">
         <v>110</v>
       </c>
@@ -8377,26 +8413,29 @@
         <v>123</v>
       </c>
       <c r="L136" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M136" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="M136" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N136" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O136" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-9</v>
+      </c>
+      <c r="P136" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P136" s="1">
+      <c r="Q136" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
         <v>107</v>
       </c>
@@ -8425,26 +8464,29 @@
         <v>124</v>
       </c>
       <c r="L137" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M137" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="M137" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N137" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O137" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-9</v>
+      </c>
+      <c r="P137" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P137" s="1">
+      <c r="Q137" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:17">
       <c r="A138" s="1" t="s">
         <v>108</v>
       </c>
@@ -8473,26 +8515,29 @@
         <v>125</v>
       </c>
       <c r="L138" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M138" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="M138" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N138" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O138" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-9</v>
+      </c>
+      <c r="P138" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P138" s="1">
+      <c r="Q138" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:17">
       <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
@@ -8521,26 +8566,29 @@
         <v>126</v>
       </c>
       <c r="L139" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M139" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="M139" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N139" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-9</v>
+        <v>1-1</v>
       </c>
       <c r="O139" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-9</v>
+      </c>
+      <c r="P139" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-54</v>
       </c>
-      <c r="P139" s="1">
+      <c r="Q139" s="1">
         <f t="shared" si="33"/>
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:17">
       <c r="A140" s="1" t="s">
         <v>118</v>
       </c>
@@ -8565,27 +8613,27 @@
       <c r="H140" s="1">
         <v>1.25</v>
       </c>
-      <c r="L140" s="1" t="s">
+      <c r="M140" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M140" s="1" t="str">
+      <c r="N140" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-10</v>
       </c>
-      <c r="N140" s="1" t="str">
+      <c r="O140" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-15</v>
       </c>
-      <c r="O140" s="1" t="str">
+      <c r="P140" s="1" t="str">
         <f t="shared" si="34"/>
         <v>6-90</v>
       </c>
-      <c r="P140" s="1">
-        <f t="shared" ref="P140" si="35">_xlfn.LET(_xlpm.a,($E140+O$3*$G140)*(1+O$2),_xlpm.b,($F140+O$3*$H140)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q140" s="1">
+        <f t="shared" ref="Q140" si="35">_xlfn.LET(_xlpm.a,($E140+P$3*$G140)*(1+P$2),_xlpm.b,($F140+P$3*$H140)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:17">
       <c r="A141" s="1" t="s">
         <v>277</v>
       </c>
@@ -8610,27 +8658,27 @@
       <c r="H141" s="1">
         <v>1.25</v>
       </c>
-      <c r="L141" s="1" t="s">
+      <c r="M141" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M141" s="1" t="str">
+      <c r="N141" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-10</v>
       </c>
-      <c r="N141" s="1" t="str">
+      <c r="O141" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-15</v>
       </c>
-      <c r="O141" s="1" t="str">
+      <c r="P141" s="1" t="str">
         <f t="shared" si="34"/>
         <v>6-90</v>
       </c>
-      <c r="P141" s="1">
-        <f t="shared" ref="P141" si="36">_xlfn.LET(_xlpm.a,($E141+O$3*$G141)*(1+O$2),_xlpm.b,($F141+O$3*$H141)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q141" s="1">
+        <f t="shared" ref="Q141" si="36">_xlfn.LET(_xlpm.a,($E141+P$3*$G141)*(1+P$2),_xlpm.b,($F141+P$3*$H141)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:17">
       <c r="A142" s="1" t="s">
         <v>279</v>
       </c>
@@ -8655,27 +8703,27 @@
       <c r="H142" s="1">
         <v>0.25</v>
       </c>
-      <c r="L142" s="1" t="s">
+      <c r="M142" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="M142" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v>1-1</v>
       </c>
       <c r="N142" s="1" t="str">
         <f t="shared" si="34"/>
-        <v>1-2</v>
+        <v>1-1</v>
       </c>
       <c r="O142" s="1" t="str">
         <f t="shared" si="34"/>
+        <v>1-2</v>
+      </c>
+      <c r="P142" s="1" t="str">
+        <f t="shared" si="34"/>
         <v>6-12</v>
       </c>
-      <c r="P142" s="1">
-        <f t="shared" ref="P142" si="37">_xlfn.LET(_xlpm.a,($E142+O$3*$G142)*(1+O$2),_xlpm.b,($F142+O$3*$H142)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q142" s="1">
+        <f t="shared" ref="Q142" si="37">_xlfn.LET(_xlpm.a,($E142+P$3*$G142)*(1+P$2),_xlpm.b,($F142+P$3*$H142)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:17">
       <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
@@ -8700,24 +8748,24 @@
       <c r="H143" s="1">
         <v>1.25</v>
       </c>
-      <c r="M143" s="1" t="str">
+      <c r="N143" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-5</v>
       </c>
-      <c r="N143" s="1" t="str">
+      <c r="O143" s="1" t="str">
         <f t="shared" si="34"/>
         <v>1-10</v>
       </c>
-      <c r="O143" s="1" t="str">
+      <c r="P143" s="1" t="str">
         <f t="shared" si="34"/>
         <v>6-60</v>
       </c>
-      <c r="P143" s="1">
-        <f t="shared" ref="P143:P144" si="38">_xlfn.LET(_xlpm.a,($E143+O$3*$G143)*(1+O$2),_xlpm.b,($F143+O$3*$H143)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q143" s="1">
+        <f t="shared" ref="Q143:Q144" si="38">_xlfn.LET(_xlpm.a,($E143+P$3*$G143)*(1+P$2),_xlpm.b,($F143+P$3*$H143)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:17">
       <c r="A144" s="1" t="s">
         <v>284</v>
       </c>
@@ -8742,27 +8790,27 @@
       <c r="H144" s="1">
         <v>8.75</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="M144" s="1" t="str">
+      <c r="N144" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-15</v>
       </c>
-      <c r="N144" s="1" t="str">
+      <c r="O144" s="1" t="str">
         <f t="shared" si="34"/>
         <v>10-50</v>
       </c>
-      <c r="O144" s="1" t="str">
+      <c r="P144" s="1" t="str">
         <f t="shared" si="34"/>
         <v>60-300</v>
       </c>
-      <c r="P144" s="1">
+      <c r="Q144" s="1">
         <f t="shared" si="38"/>
         <v>180</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:17">
       <c r="A145" s="1" t="s">
         <v>302</v>
       </c>
@@ -8787,24 +8835,24 @@
       <c r="H145" s="1">
         <v>1.25</v>
       </c>
-      <c r="M145" s="1" t="str">
+      <c r="N145" s="1" t="str">
         <f t="shared" si="34"/>
         <v>2.5-5</v>
       </c>
-      <c r="N145" s="1" t="str">
+      <c r="O145" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-10</v>
       </c>
-      <c r="O145" s="1" t="str">
+      <c r="P145" s="1" t="str">
         <f t="shared" si="34"/>
         <v>30-60</v>
       </c>
-      <c r="P145" s="1">
-        <f t="shared" ref="P145" si="39">_xlfn.LET(_xlpm.a,($E145+O$3*$G145)*(1+O$2),_xlpm.b,($F145+O$3*$H145)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q145" s="1">
+        <f t="shared" ref="Q145" si="39">_xlfn.LET(_xlpm.a,($E145+P$3*$G145)*(1+P$2),_xlpm.b,($F145+P$3*$H145)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:17">
       <c r="A146" s="1" t="s">
         <v>303</v>
       </c>
@@ -8829,24 +8877,24 @@
       <c r="H146" s="1">
         <v>2.5</v>
       </c>
-      <c r="M146" s="1" t="str">
+      <c r="N146" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-10</v>
       </c>
-      <c r="N146" s="1" t="str">
+      <c r="O146" s="1" t="str">
         <f t="shared" si="34"/>
         <v>10-20</v>
       </c>
-      <c r="O146" s="1" t="str">
+      <c r="P146" s="1" t="str">
         <f t="shared" si="34"/>
         <v>60-120</v>
       </c>
-      <c r="P146" s="1">
-        <f t="shared" ref="P146:P185" si="40">_xlfn.LET(_xlpm.a,($E146+O$3*$G146)*(1+O$2),_xlpm.b,($F146+O$3*$H146)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q146" s="1">
+        <f t="shared" ref="Q146:Q185" si="40">_xlfn.LET(_xlpm.a,($E146+P$3*$G146)*(1+P$2),_xlpm.b,($F146+P$3*$H146)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:17">
       <c r="A147" s="1" t="s">
         <v>304</v>
       </c>
@@ -8871,24 +8919,24 @@
       <c r="H147" s="1">
         <v>2.5</v>
       </c>
-      <c r="M147" s="1" t="str">
+      <c r="N147" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-10</v>
       </c>
-      <c r="N147" s="1" t="str">
+      <c r="O147" s="1" t="str">
         <f t="shared" si="34"/>
         <v>10-20</v>
       </c>
-      <c r="O147" s="1" t="str">
+      <c r="P147" s="1" t="str">
         <f t="shared" si="34"/>
         <v>60-120</v>
       </c>
-      <c r="P147" s="1">
+      <c r="Q147" s="1">
         <f t="shared" si="40"/>
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:17">
       <c r="A148" s="1" t="s">
         <v>305</v>
       </c>
@@ -8913,24 +8961,24 @@
       <c r="H148" s="1">
         <v>2.5</v>
       </c>
-      <c r="M148" s="1" t="str">
+      <c r="N148" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-10</v>
       </c>
-      <c r="N148" s="1" t="str">
+      <c r="O148" s="1" t="str">
         <f t="shared" si="34"/>
         <v>10-20</v>
       </c>
-      <c r="O148" s="1" t="str">
+      <c r="P148" s="1" t="str">
         <f t="shared" si="34"/>
         <v>60-120</v>
       </c>
-      <c r="P148" s="1">
+      <c r="Q148" s="1">
         <f t="shared" si="40"/>
         <v>90</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:17">
       <c r="A149" s="1" t="s">
         <v>306</v>
       </c>
@@ -8955,24 +9003,24 @@
       <c r="H149" s="1">
         <v>2.5</v>
       </c>
-      <c r="M149" s="1" t="str">
+      <c r="N149" s="1" t="str">
         <f t="shared" si="34"/>
         <v>5-10</v>
       </c>
-      <c r="N149" s="1" t="str">
+      <c r="O149" s="1" t="str">
         <f t="shared" si="34"/>
         <v>10-20</v>
       </c>
-      <c r="O149" s="1" t="str">
+      <c r="P149" s="1" t="str">
         <f t="shared" si="34"/>
         <v>60-120</v>
       </c>
-      <c r="P149" s="1">
+      <c r="Q149" s="1">
         <f t="shared" si="40"/>
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:17">
       <c r="A150" s="1" t="s">
         <v>307</v>
       </c>
@@ -8997,24 +9045,24 @@
       <c r="H150" s="1">
         <v>0.5</v>
       </c>
-      <c r="M150" s="1" t="str">
-        <f t="shared" ref="M150:O165" si="41">_xlfn.LET(_xlpm.a,($E150+M$3*$G150)*(1+M$2),_xlpm.b,($F150+M$3*$H150)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N150" s="1" t="str">
+        <f t="shared" ref="N150:P165" si="41">_xlfn.LET(_xlpm.a,($E150+N$3*$G150)*(1+N$2),_xlpm.b,($F150+N$3*$H150)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="O150" s="1" t="str">
         <f t="shared" si="41"/>
         <v>1-3</v>
       </c>
-      <c r="O150" s="1" t="str">
+      <c r="P150" s="1" t="str">
         <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P150" s="1">
+      <c r="Q150" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:17">
       <c r="A151" s="1" t="s">
         <v>309</v>
       </c>
@@ -9039,24 +9087,24 @@
       <c r="H151" s="1">
         <v>0.5</v>
       </c>
-      <c r="M151" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N151" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O151" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P151" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P151" s="1">
+      <c r="Q151" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:17">
       <c r="A152" s="1" t="s">
         <v>311</v>
       </c>
@@ -9081,24 +9129,24 @@
       <c r="H152" s="1">
         <v>0.5</v>
       </c>
-      <c r="M152" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N152" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O152" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P152" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P152" s="1">
+      <c r="Q152" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:17">
       <c r="A153" s="1" t="s">
         <v>313</v>
       </c>
@@ -9123,24 +9171,24 @@
       <c r="H153" s="1">
         <v>0.5</v>
       </c>
-      <c r="M153" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N153" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O153" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P153" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P153" s="1">
+      <c r="Q153" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:17">
       <c r="A154" s="1" t="s">
         <v>315</v>
       </c>
@@ -9165,24 +9213,24 @@
       <c r="H154" s="1">
         <v>0.5</v>
       </c>
-      <c r="M154" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N154" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O154" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P154" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P154" s="1">
+      <c r="Q154" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:17">
       <c r="A155" s="1" t="s">
         <v>317</v>
       </c>
@@ -9207,24 +9255,24 @@
       <c r="H155" s="1">
         <v>0.5</v>
       </c>
-      <c r="M155" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N155" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O155" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P155" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P155" s="1">
+      <c r="Q155" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:17">
       <c r="A156" s="1" t="s">
         <v>319</v>
       </c>
@@ -9249,24 +9297,24 @@
       <c r="H156" s="1">
         <v>0.5</v>
       </c>
-      <c r="M156" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N156" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O156" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P156" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P156" s="1">
+      <c r="Q156" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:17">
       <c r="A157" s="1" t="s">
         <v>321</v>
       </c>
@@ -9291,24 +9339,24 @@
       <c r="H157" s="1">
         <v>0.5</v>
       </c>
-      <c r="M157" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N157" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O157" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P157" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P157" s="1">
+      <c r="Q157" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:17">
       <c r="A158" s="1" t="s">
         <v>323</v>
       </c>
@@ -9333,24 +9381,24 @@
       <c r="H158" s="1">
         <v>0.5</v>
       </c>
-      <c r="M158" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N158" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O158" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P158" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P158" s="1">
+      <c r="Q158" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:17">
       <c r="A159" s="1" t="s">
         <v>325</v>
       </c>
@@ -9375,24 +9423,24 @@
       <c r="H159" s="1">
         <v>0.5</v>
       </c>
-      <c r="M159" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N159" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O159" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P159" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P159" s="1">
+      <c r="Q159" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:17">
       <c r="A160" s="1" t="s">
         <v>327</v>
       </c>
@@ -9417,24 +9465,24 @@
       <c r="H160" s="1">
         <v>0.5</v>
       </c>
-      <c r="M160" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N160" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O160" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P160" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P160" s="1">
+      <c r="Q160" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:17">
       <c r="A161" s="1" t="s">
         <v>329</v>
       </c>
@@ -9459,24 +9507,24 @@
       <c r="H161" s="1">
         <v>0.5</v>
       </c>
-      <c r="M161" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N161" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O161" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P161" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P161" s="1">
+      <c r="Q161" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:17">
       <c r="A162" s="1" t="s">
         <v>331</v>
       </c>
@@ -9501,24 +9549,24 @@
       <c r="H162" s="1">
         <v>0.5</v>
       </c>
-      <c r="M162" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N162" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O162" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P162" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P162" s="1">
+      <c r="Q162" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:17">
       <c r="A163" s="1" t="s">
         <v>333</v>
       </c>
@@ -9543,24 +9591,24 @@
       <c r="H163" s="1">
         <v>0.5</v>
       </c>
-      <c r="M163" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N163" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O163" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P163" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P163" s="1">
+      <c r="Q163" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:17">
       <c r="A164" s="1" t="s">
         <v>335</v>
       </c>
@@ -9585,24 +9633,24 @@
       <c r="H164" s="1">
         <v>0.5</v>
       </c>
-      <c r="M164" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N164" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O164" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P164" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P164" s="1">
+      <c r="Q164" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:17">
       <c r="A165" s="1" t="s">
         <v>337</v>
       </c>
@@ -9627,24 +9675,24 @@
       <c r="H165" s="1">
         <v>0.5</v>
       </c>
-      <c r="M165" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>1-1</v>
-      </c>
       <c r="N165" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O165" s="1" t="str">
         <f t="shared" si="41"/>
+        <v>1-3</v>
+      </c>
+      <c r="P165" s="1" t="str">
+        <f t="shared" si="41"/>
         <v>6-18</v>
       </c>
-      <c r="P165" s="1">
+      <c r="Q165" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:17">
       <c r="A166" s="1" t="s">
         <v>339</v>
       </c>
@@ -9669,24 +9717,24 @@
       <c r="H166" s="1">
         <v>0.5</v>
       </c>
-      <c r="M166" s="1" t="str">
-        <f t="shared" ref="M166:O187" si="42">_xlfn.LET(_xlpm.a,($E166+M$3*$G166)*(1+M$2),_xlpm.b,($F166+M$3*$H166)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N166" s="1" t="str">
+        <f t="shared" ref="N166:P187" si="42">_xlfn.LET(_xlpm.a,($E166+N$3*$G166)*(1+N$2),_xlpm.b,($F166+N$3*$H166)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
+        <v>1-1</v>
+      </c>
+      <c r="O166" s="1" t="str">
         <f t="shared" si="42"/>
         <v>1-3</v>
       </c>
-      <c r="O166" s="1" t="str">
+      <c r="P166" s="1" t="str">
         <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P166" s="1">
+      <c r="Q166" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:17">
       <c r="A167" s="1" t="s">
         <v>341</v>
       </c>
@@ -9711,24 +9759,24 @@
       <c r="H167" s="1">
         <v>0.5</v>
       </c>
-      <c r="M167" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N167" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O167" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P167" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P167" s="1">
+      <c r="Q167" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:17">
       <c r="A168" s="1" t="s">
         <v>343</v>
       </c>
@@ -9753,24 +9801,24 @@
       <c r="H168" s="1">
         <v>0.5</v>
       </c>
-      <c r="M168" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N168" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O168" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P168" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P168" s="1">
+      <c r="Q168" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:17">
       <c r="A169" s="1" t="s">
         <v>345</v>
       </c>
@@ -9795,24 +9843,24 @@
       <c r="H169" s="1">
         <v>0.5</v>
       </c>
-      <c r="M169" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N169" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O169" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P169" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P169" s="1">
+      <c r="Q169" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:17">
       <c r="A170" s="1" t="s">
         <v>347</v>
       </c>
@@ -9837,24 +9885,24 @@
       <c r="H170" s="1">
         <v>0.5</v>
       </c>
-      <c r="M170" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N170" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O170" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P170" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P170" s="1">
+      <c r="Q170" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:17">
       <c r="A171" s="1" t="s">
         <v>349</v>
       </c>
@@ -9879,24 +9927,24 @@
       <c r="H171" s="1">
         <v>0.5</v>
       </c>
-      <c r="M171" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N171" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O171" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P171" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P171" s="1">
+      <c r="Q171" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:17">
       <c r="A172" s="1" t="s">
         <v>351</v>
       </c>
@@ -9921,24 +9969,24 @@
       <c r="H172" s="1">
         <v>0.5</v>
       </c>
-      <c r="M172" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N172" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O172" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P172" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P172" s="1">
+      <c r="Q172" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:17">
       <c r="A173" s="1" t="s">
         <v>353</v>
       </c>
@@ -9963,24 +10011,24 @@
       <c r="H173" s="1">
         <v>0.5</v>
       </c>
-      <c r="M173" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N173" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O173" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P173" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P173" s="1">
+      <c r="Q173" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:17">
       <c r="A174" s="1" t="s">
         <v>355</v>
       </c>
@@ -10005,24 +10053,24 @@
       <c r="H174" s="1">
         <v>0.5</v>
       </c>
-      <c r="M174" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N174" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O174" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P174" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P174" s="1">
+      <c r="Q174" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:17">
       <c r="A175" s="1" t="s">
         <v>357</v>
       </c>
@@ -10047,24 +10095,24 @@
       <c r="H175" s="1">
         <v>0.5</v>
       </c>
-      <c r="M175" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N175" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O175" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P175" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P175" s="1">
+      <c r="Q175" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:17">
       <c r="A176" s="1" t="s">
         <v>359</v>
       </c>
@@ -10089,24 +10137,24 @@
       <c r="H176" s="1">
         <v>0.5</v>
       </c>
-      <c r="M176" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N176" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O176" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P176" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P176" s="1">
+      <c r="Q176" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:17">
       <c r="A177" s="1" t="s">
         <v>361</v>
       </c>
@@ -10131,24 +10179,24 @@
       <c r="H177" s="1">
         <v>0.5</v>
       </c>
-      <c r="M177" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N177" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O177" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P177" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P177" s="1">
+      <c r="Q177" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:17">
       <c r="A178" s="1" t="s">
         <v>363</v>
       </c>
@@ -10173,24 +10221,24 @@
       <c r="H178" s="1">
         <v>0.5</v>
       </c>
-      <c r="M178" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N178" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O178" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P178" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P178" s="1">
+      <c r="Q178" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:17">
       <c r="A179" s="1" t="s">
         <v>365</v>
       </c>
@@ -10215,24 +10263,24 @@
       <c r="H179" s="1">
         <v>0.5</v>
       </c>
-      <c r="M179" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N179" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O179" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P179" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P179" s="1">
+      <c r="Q179" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:17">
       <c r="A180" s="1" t="s">
         <v>367</v>
       </c>
@@ -10257,24 +10305,24 @@
       <c r="H180" s="1">
         <v>0.5</v>
       </c>
-      <c r="M180" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N180" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O180" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P180" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P180" s="1">
+      <c r="Q180" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:17">
       <c r="A181" s="1" t="s">
         <v>369</v>
       </c>
@@ -10299,24 +10347,24 @@
       <c r="H181" s="1">
         <v>0.5</v>
       </c>
-      <c r="M181" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N181" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O181" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P181" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P181" s="1">
+      <c r="Q181" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:17">
       <c r="A182" s="1" t="s">
         <v>371</v>
       </c>
@@ -10341,24 +10389,24 @@
       <c r="H182" s="1">
         <v>0.5</v>
       </c>
-      <c r="M182" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N182" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O182" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P182" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P182" s="1">
+      <c r="Q182" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:17">
       <c r="A183" s="1" t="s">
         <v>373</v>
       </c>
@@ -10383,24 +10431,24 @@
       <c r="H183" s="1">
         <v>0.5</v>
       </c>
-      <c r="M183" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N183" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O183" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P183" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P183" s="1">
+      <c r="Q183" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:17">
       <c r="A184" s="1" t="s">
         <v>375</v>
       </c>
@@ -10425,24 +10473,24 @@
       <c r="H184" s="1">
         <v>0.5</v>
       </c>
-      <c r="M184" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N184" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O184" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P184" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P184" s="1">
+      <c r="Q184" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:17">
       <c r="A185" s="1" t="s">
         <v>377</v>
       </c>
@@ -10467,24 +10515,24 @@
       <c r="H185" s="1">
         <v>0.5</v>
       </c>
-      <c r="M185" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N185" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>1-3</v>
+        <v>1-1</v>
       </c>
       <c r="O185" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-3</v>
+      </c>
+      <c r="P185" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-18</v>
       </c>
-      <c r="P185" s="1">
+      <c r="Q185" s="1">
         <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:17">
       <c r="A186" s="1" t="s">
         <v>379</v>
       </c>
@@ -10509,24 +10557,24 @@
       <c r="H186" s="1">
         <v>0</v>
       </c>
-      <c r="M186" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N186" s="1" t="str">
         <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="O186" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-1</v>
+      </c>
+      <c r="P186" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-6</v>
       </c>
-      <c r="P186" s="1">
-        <f t="shared" ref="P186" si="43">_xlfn.LET(_xlpm.a,($E186+O$3*$G186)*(1+O$2),_xlpm.b,($F186+O$3*$H186)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q186" s="1">
+        <f t="shared" ref="Q186" si="43">_xlfn.LET(_xlpm.a,($E186+P$3*$G186)*(1+P$2),_xlpm.b,($F186+P$3*$H186)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:17">
       <c r="A187" s="1" t="s">
         <v>380</v>
       </c>
@@ -10551,24 +10599,24 @@
       <c r="H187" s="1">
         <v>0</v>
       </c>
-      <c r="M187" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>1-1</v>
-      </c>
       <c r="N187" s="1" t="str">
         <f t="shared" si="42"/>
         <v>1-1</v>
       </c>
       <c r="O187" s="1" t="str">
         <f t="shared" si="42"/>
+        <v>1-1</v>
+      </c>
+      <c r="P187" s="1" t="str">
+        <f t="shared" si="42"/>
         <v>6-6</v>
       </c>
-      <c r="P187" s="1">
-        <f t="shared" ref="P187:P203" si="44">_xlfn.LET(_xlpm.a,($E187+O$3*$G187)*(1+O$2),_xlpm.b,($F187+O$3*$H187)*(1+O$2),_xlpm.a/2+_xlpm.b/2)</f>
+      <c r="Q187" s="1">
+        <f t="shared" ref="Q187:Q203" si="44">_xlfn.LET(_xlpm.a,($E187+P$3*$G187)*(1+P$2),_xlpm.b,($F187+P$3*$H187)*(1+P$2),_xlpm.a/2+_xlpm.b/2)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:17">
       <c r="A188" s="1" t="s">
         <v>381</v>
       </c>
@@ -10593,24 +10641,24 @@
       <c r="H188" s="1">
         <v>0</v>
       </c>
-      <c r="M188" s="1" t="str">
-        <f t="shared" ref="M188:O203" si="45">_xlfn.LET(_xlpm.a,($E188+M$3*$G188)*(1+M$2),_xlpm.b,($F188+M$3*$H188)*(1+M$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
-        <v>1-1</v>
-      </c>
       <c r="N188" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="N188:P203" si="45">_xlfn.LET(_xlpm.a,($E188+N$3*$G188)*(1+N$2),_xlpm.b,($F188+N$3*$H188)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
       </c>
       <c r="O188" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P188" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P188" s="1">
+      <c r="Q188" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:17">
       <c r="A189" s="1" t="s">
         <v>382</v>
       </c>
@@ -10635,24 +10683,24 @@
       <c r="H189" s="1">
         <v>0</v>
       </c>
-      <c r="M189" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N189" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O189" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P189" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P189" s="1">
+      <c r="Q189" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:17">
       <c r="A190" s="1" t="s">
         <v>383</v>
       </c>
@@ -10677,24 +10725,24 @@
       <c r="H190" s="1">
         <v>0</v>
       </c>
-      <c r="M190" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N190" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O190" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P190" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P190" s="1">
+      <c r="Q190" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:17">
       <c r="A191" s="1" t="s">
         <v>384</v>
       </c>
@@ -10719,24 +10767,24 @@
       <c r="H191" s="1">
         <v>0</v>
       </c>
-      <c r="M191" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N191" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O191" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P191" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P191" s="1">
+      <c r="Q191" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:17">
       <c r="A192" s="1" t="s">
         <v>385</v>
       </c>
@@ -10761,24 +10809,24 @@
       <c r="H192" s="1">
         <v>0</v>
       </c>
-      <c r="M192" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N192" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O192" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P192" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P192" s="1">
+      <c r="Q192" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:17">
       <c r="A193" s="1" t="s">
         <v>386</v>
       </c>
@@ -10803,24 +10851,24 @@
       <c r="H193" s="1">
         <v>0</v>
       </c>
-      <c r="M193" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N193" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O193" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P193" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P193" s="1">
+      <c r="Q193" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:17">
       <c r="A194" s="1" t="s">
         <v>387</v>
       </c>
@@ -10845,24 +10893,24 @@
       <c r="H194" s="1">
         <v>0</v>
       </c>
-      <c r="M194" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N194" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O194" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P194" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P194" s="1">
+      <c r="Q194" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:17">
       <c r="A195" s="1" t="s">
         <v>388</v>
       </c>
@@ -10887,24 +10935,24 @@
       <c r="H195" s="1">
         <v>0</v>
       </c>
-      <c r="M195" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N195" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O195" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P195" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P195" s="1">
+      <c r="Q195" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:17">
       <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
@@ -10929,24 +10977,24 @@
       <c r="H196" s="1">
         <v>0</v>
       </c>
-      <c r="M196" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N196" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O196" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P196" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P196" s="1">
+      <c r="Q196" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:17">
       <c r="A197" s="1" t="s">
         <v>390</v>
       </c>
@@ -10971,24 +11019,24 @@
       <c r="H197" s="1">
         <v>0</v>
       </c>
-      <c r="M197" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N197" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O197" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P197" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P197" s="1">
+      <c r="Q197" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:17">
       <c r="A198" s="1" t="s">
         <v>391</v>
       </c>
@@ -11013,24 +11061,24 @@
       <c r="H198" s="1">
         <v>0</v>
       </c>
-      <c r="M198" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N198" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O198" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P198" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P198" s="1">
+      <c r="Q198" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:17">
       <c r="A199" s="1" t="s">
         <v>392</v>
       </c>
@@ -11055,24 +11103,24 @@
       <c r="H199" s="1">
         <v>0</v>
       </c>
-      <c r="M199" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N199" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O199" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P199" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P199" s="1">
+      <c r="Q199" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:17">
       <c r="A200" s="1" t="s">
         <v>393</v>
       </c>
@@ -11097,24 +11145,24 @@
       <c r="H200" s="1">
         <v>0</v>
       </c>
-      <c r="M200" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N200" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O200" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P200" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P200" s="1">
+      <c r="Q200" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:17">
       <c r="A201" s="1" t="s">
         <v>394</v>
       </c>
@@ -11139,24 +11187,24 @@
       <c r="H201" s="1">
         <v>0</v>
       </c>
-      <c r="M201" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N201" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O201" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P201" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P201" s="1">
+      <c r="Q201" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:17">
       <c r="A202" s="1" t="s">
         <v>395</v>
       </c>
@@ -11181,24 +11229,24 @@
       <c r="H202" s="1">
         <v>0</v>
       </c>
-      <c r="M202" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N202" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O202" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P202" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P202" s="1">
+      <c r="Q202" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:17">
       <c r="A203" s="1" t="s">
         <v>396</v>
       </c>
@@ -11223,19 +11271,19 @@
       <c r="H203" s="1">
         <v>0</v>
       </c>
-      <c r="M203" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>1-1</v>
-      </c>
       <c r="N203" s="1" t="str">
         <f t="shared" si="45"/>
         <v>1-1</v>
       </c>
       <c r="O203" s="1" t="str">
         <f t="shared" si="45"/>
+        <v>1-1</v>
+      </c>
+      <c r="P203" s="1" t="str">
+        <f t="shared" si="45"/>
         <v>6-6</v>
       </c>
-      <c r="P203" s="1">
+      <c r="Q203" s="1">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B65FC-8C0D-40EF-A181-C398196193A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53050BB5-3D7B-4FB9-BF0D-675085A3B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2291,7 +2291,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53050BB5-3D7B-4FB9-BF0D-675085A3B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61DE46-769A-4B8B-A984-5BDD7680135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2289,16 +2289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M121" sqref="M121"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" style="1" customWidth="1"/>

--- a/configs/Affix.xlsx
+++ b/configs/Affix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yatyr\workspace\gvbasic-mir-remaster\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61DE46-769A-4B8B-A984-5BDD7680135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39176B7-F281-47C9-96DA-BEDB5017C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="572">
   <si>
     <t>id</t>
   </si>
@@ -1768,6 +1768,24 @@
   </si>
   <si>
     <t>SkillId</t>
+  </si>
+  <si>
+    <t>belt,necklace,ring</t>
+  </si>
+  <si>
+    <t>boot,glove,pauldron,weapon,bracelet</t>
+  </si>
+  <si>
+    <t>helm,pant,weapon</t>
+  </si>
+  <si>
+    <t>armor,weapon</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>armor,belt,boot,glove,helm,necklace,pant,pauldron,ring,weapon,bracelet</t>
   </si>
 </sst>
 </file>
@@ -2289,9 +2307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5566,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>399</v>
+        <v>566</v>
       </c>
       <c r="N73" s="1" t="str">
         <f t="shared" si="13"/>
@@ -5610,6 +5628,9 @@
       <c r="H74" s="1">
         <v>0.25</v>
       </c>
+      <c r="M74" s="1" t="s">
+        <v>567</v>
+      </c>
       <c r="N74" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
@@ -5652,6 +5673,9 @@
       <c r="H75" s="1">
         <v>0.5</v>
       </c>
+      <c r="M75" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="N75" s="1" t="str">
         <f t="shared" si="13"/>
         <v>1-1</v>
@@ -5694,6 +5718,9 @@
       <c r="H76" s="1">
         <v>0.75</v>
       </c>
+      <c r="M76" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="N76" s="1" t="str">
         <f t="shared" ref="N76:P91" si="20">_xlfn.LET(_xlpm.a,($E76+N$3*$G76)*(1+N$2),_xlpm.b,($F76+N$3*$H76)*(1+N$2),_xlpm.a&amp;"-"&amp;_xlpm.b)</f>
         <v>1-1</v>
@@ -5736,6 +5763,9 @@
       <c r="H77" s="1">
         <v>1</v>
       </c>
+      <c r="M77" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="N77" s="1" t="str">
         <f t="shared" si="20"/>
         <v>1-1</v>
@@ -5777,6 +5807,9 @@
       </c>
       <c r="H78" s="1">
         <v>0</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="N78" s="1" t="str">
         <f t="shared" si="20"/>
